--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\[19-2]\[19-2] 융합소프트웨어종합설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\babalzza\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -2321,6 +2321,691 @@
         <charset val="129"/>
       </rPr>
       <t>관리</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Cae Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유형별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레시피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Outline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2887,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3183,31 +3868,73 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>60</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="9">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17">
+        <v>60</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D18" s="9">
+        <v>30</v>
+      </c>
+      <c r="E18" s="17">
+        <v>140</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
@@ -3405,7 +4132,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3562,22 +4289,50 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" s="9">
+        <v>20</v>
+      </c>
+      <c r="E11" s="17">
+        <v>100</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -4274,7 +5029,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G8"/>
+      <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4408,22 +5163,50 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>60</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>120</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
@@ -5126,7 +5909,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5283,22 +6066,50 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>60</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>90</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\babalzza\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="17" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="57">
   <si>
     <t>Table C16  Time Recording Log</t>
   </si>
@@ -3006,6 +3006,88 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3572,8 +3654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3936,14 +4018,28 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>75</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DDE471-A67C-499D-9B63-4F68AFCFB464}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -25,31 +26,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -69,6 +72,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -87,6 +91,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -105,6 +110,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -123,6 +129,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -141,6 +148,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -159,6 +167,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -177,6 +186,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -198,31 +208,33 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -242,6 +254,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -260,6 +273,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -278,6 +292,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -296,6 +311,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -314,6 +330,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -332,6 +349,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -350,6 +368,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -371,31 +390,33 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -415,6 +436,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -433,6 +455,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -451,6 +474,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -469,6 +493,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -487,6 +512,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -505,6 +531,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -523,6 +550,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -544,31 +572,33 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -588,6 +618,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -606,6 +637,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -624,6 +656,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -642,6 +675,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -660,6 +694,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -678,6 +713,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -696,6 +732,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -717,31 +754,33 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -761,6 +800,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -779,6 +819,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -797,6 +838,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -815,6 +857,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -833,6 +876,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -851,6 +895,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -869,6 +914,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -890,31 +936,33 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -934,6 +982,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -952,6 +1001,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -970,6 +1020,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -988,6 +1039,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1006,6 +1058,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1024,6 +1077,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1042,6 +1096,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1063,31 +1118,33 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -1107,6 +1164,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -1125,6 +1183,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1143,6 +1202,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1161,6 +1221,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1179,6 +1240,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1197,6 +1259,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1215,6 +1278,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1236,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="71">
   <si>
     <t>밥알짜 프로젝트 생성 및 독립 로그인, 팝업, 탭 액티비티 구현</t>
   </si>
@@ -1246,6 +1310,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1264,6 +1329,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1282,6 +1348,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1300,6 +1367,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -1318,6 +1386,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1328,6 +1397,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1346,6 +1416,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1364,6 +1435,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1382,6 +1454,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1392,6 +1465,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -1410,6 +1484,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1428,6 +1503,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1446,6 +1522,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1459,6 +1536,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (2</t>
     </r>
@@ -1477,6 +1555,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1495,6 +1574,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1513,6 +1593,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1523,6 +1604,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (1</t>
     </r>
@@ -1541,6 +1623,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1559,6 +1642,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1577,6 +1661,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1597,6 +1682,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1615,6 +1701,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1633,6 +1720,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1651,6 +1739,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1669,6 +1758,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1687,6 +1777,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -1707,6 +1798,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (3</t>
     </r>
@@ -1725,6 +1817,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1743,6 +1836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1761,6 +1855,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1780,6 +1875,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Cae Outline </t>
     </r>
@@ -1800,6 +1896,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -1833,6 +1930,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, PMP </t>
     </r>
@@ -1851,6 +1949,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1874,6 +1973,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1892,6 +1992,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1910,6 +2011,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1928,6 +2030,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1946,6 +2049,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -1964,6 +2068,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1974,6 +2079,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1992,6 +2098,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2010,6 +2117,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2028,6 +2136,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2046,6 +2155,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2064,6 +2174,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -2082,6 +2193,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2095,6 +2207,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -2113,6 +2226,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2131,6 +2245,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2149,6 +2264,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2167,6 +2283,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2185,6 +2302,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -2203,6 +2321,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2219,6 +2338,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2237,6 +2357,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 8</t>
     </r>
@@ -2257,6 +2378,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2275,6 +2397,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 6</t>
     </r>
@@ -2295,6 +2418,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -2313,6 +2437,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -2333,6 +2458,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2351,6 +2477,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 29</t>
     </r>
@@ -2371,6 +2498,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2389,6 +2517,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 7</t>
     </r>
@@ -2409,6 +2538,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2427,6 +2557,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -2453,6 +2584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2471,6 +2603,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
@@ -2491,6 +2624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2509,6 +2643,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 21</t>
     </r>
@@ -2529,6 +2664,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2547,6 +2683,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 19</t>
     </r>
@@ -2567,6 +2704,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2585,6 +2723,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
@@ -2611,6 +2750,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2629,6 +2769,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 28</t>
     </r>
@@ -2661,6 +2802,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -2674,6 +2816,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -2692,6 +2835,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 9</t>
     </r>
@@ -2725,6 +2869,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2743,6 +2888,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2761,6 +2907,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2779,6 +2926,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2820,6 +2968,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -2851,6 +3000,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2869,6 +3019,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2901,6 +3052,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -2934,6 +3086,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -2967,6 +3120,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -3000,6 +3154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -3033,6 +3188,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -3070,6 +3226,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3088,6 +3245,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3106,6 +3264,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3124,6 +3283,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3142,6 +3302,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3160,6 +3321,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3377,16 +3539,132 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 화면, 버튼 ui 개선 및 에러 코드 보완</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">최종 데이터베이스 연동 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 확인 및 테스트 영상 생성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">최종 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prototyping Sample</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 영상 생성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3396,18 +3674,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3428,6 +3709,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3445,6 +3727,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -3500,7 +3789,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -3583,10 +3872,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3893,11 +4186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:G22"/>
     </sheetView>
   </sheetViews>
@@ -4507,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -4972,12 +5265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5221,36 +5514,78 @@
       <c r="F13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="4"/>
+      <c r="G13" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>120</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>90</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="14">
+        <v>43745</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>30</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -5462,7 +5797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -5910,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -6344,7 +6679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -6834,7 +7169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1118,7 +1118,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="59">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="60">
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Use Case Outline </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>유형별</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>레시피</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>검색</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> UC </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>메인 화면 - 검색 툴바, 내 재료 화면 및 화면 이동 FB 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Use Case Outline </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>식단</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>추천</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>및</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>관리</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> UC </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Use Case Outline </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>식재료</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>검색</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>및</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>관리</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> UC </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
   <x:si>
     <x:t>밥알짜 프로젝트 생성 및 독립 로그인, 팝업, 탭 액티비티 구현</x:t>
   </x:si>
@@ -1197,62 +1502,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Use Case Outline </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>합본</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
+    <x:t>Use Case Specification 작성 (식단 추천, 사후 관리)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1261,7 +1511,230 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">Use Case Diagram </x:t>
+      <x:t>Target App Ideation (1</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>차</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>기획</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>회의</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>PSP: Personal Software Process</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Target App Ideation (3</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>차</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>기획</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>회의</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트 수행 계획서 작성(피봇팅 회의 및 기획 확정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table C16  Time Recording Log</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>Target App Ideation (2</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>차</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>기획</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>회의</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>프로젝트</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>수행</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>계획서</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1285,7 +1758,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>초안</x:t>
+      <x:t>최종본</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1309,7 +1782,15 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>)</x:t>
+      <x:t xml:space="preserve">), PMP </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>관리</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -1322,55 +1803,15 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>Target App Ideation (2</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>차</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>기획</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>회의</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
+      <x:t xml:space="preserve">Use Case Diagram </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -1380,265 +1821,19 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>Target App Ideation (1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>차</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>기획</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>회의</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
+      <x:t xml:space="preserve">Use Cae Outline </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>프로젝트</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>수행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>계획서</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>최종본</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">), PMP </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>Target App Ideation (3</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>차</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>기획</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>회의</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Table C16  Time Recording Log</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PSP: Personal Software Process</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트 수행 계획서 작성(피봇팅 회의 및 기획 확정)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Use Cae Outline </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Use Case Diagram </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
+    <x:t>Project Planning</x:t>
   </x:si>
   <x:si>
     <x:t>Interruption Time</x:t>
@@ -1686,7 +1881,62 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Project Planning</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">Use Case Diagram </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> (</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>초안</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>작성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>)</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -1719,7 +1969,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>유형별</x:t>
+      <x:t>합본</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1728,38 +1978,6 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>레시피</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>검색</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> UC </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1779,113 +1997,10 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">Use Case Outline </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>식재료</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>검색</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> UC </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
-    </x:r>
+    <x:t>Use Case Specification 작성</x:t>
   </x:si>
   <x:si>
-    <x:t>메인 화면 - 검색 툴바, 내 재료 화면 및 화면 이동 FB 구현</x:t>
+    <x:t>10월 7일</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1894,320 +2009,308 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">Use Case Outline </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> (</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>식단</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>추천</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>관리</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> UC </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>작성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>)</x:t>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 27</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Use Case Specification 작성 (식단 추천, 사후 관리)</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 24</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 6</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>팀명: 6조</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Task</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 7</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 21</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 29</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>작성자명</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> : </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 20</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Stop</x:t>
   </x:si>
   <x:si>
     <x:t>10월 5일</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 8</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 6</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>10</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 1</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 29</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 7</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 27</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
+    <x:t>Date</x:t>
   </x:si>
   <x:si>
     <x:t>Start</x:t>
   </x:si>
   <x:si>
-    <x:t>Stop</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>9</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>월</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 28</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>일</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -2216,7 +2319,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>9</x:t>
+      <x:t>10</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2232,7 +2335,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 24</x:t>
+      <x:t xml:space="preserve"> 1</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2266,7 +2369,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 21</x:t>
+      <x:t xml:space="preserve"> 19</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2300,7 +2403,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 19</x:t>
+      <x:t xml:space="preserve"> 8</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2334,7 +2437,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 20</x:t>
+      <x:t xml:space="preserve"> 9</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2343,190 +2446,45 @@
         <x:color rgb="ff000000"/>
       </x:rPr>
       <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팀명: 6조</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 28</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>작성자명</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> : </x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Task</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>월</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 9</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>일</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>Use Case Specification 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>깃헙</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>스토리지</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>생성</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>및</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정리</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:t>Delta Time</x:t>
   </x:si>
   <x:si>
+    <x:t>Prototyping</x:t>
+  </x:si>
+  <x:si>
     <x:t>Activity</x:t>
   </x:si>
   <x:si>
-    <x:t>Prototyping</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>작성자명</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> : </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>나승원</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -2554,7 +2512,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>백지수</x:t>
+      <x:t>이성준</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2563,40 +2521,27 @@
         <x:rFont val="돋움"/>
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>깃헙</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>협업</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>스터디</x:t>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>작성자명</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> : </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>백지수</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2625,7 +2570,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>이성준</x:t>
+      <x:t>김정현</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2654,7 +2599,7 @@
         <x:color rgb="ff000000"/>
         <x:b val="1"/>
       </x:rPr>
-      <x:t>나승원</x:t>
+      <x:t>최재영</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2663,27 +2608,40 @@
         <x:rFont val="돋움"/>
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>작성자명</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> : </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>김정현</x:t>
+      </x:rPr>
+      <x:t>깃헙</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>협업</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>스터디</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -2721,34 +2679,79 @@
         <x:rFont val="돋움"/>
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>작성자명</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> : </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-        <x:b val="1"/>
-      </x:rPr>
-      <x:t>최재영</x:t>
+      </x:rPr>
+      <x:t>깃헙</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>스토리지</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>생성</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>및</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>정리</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:t>프로젝트 수행 계획서 작성(초안 작성)</x:t>
   </x:si>
   <x:si>
-    <x:t>프로젝트 수행 계획서 작성(최종본 작성)</x:t>
+    <x:t>Target App Refinement</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -2849,7 +2852,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>Target App Refinement</x:t>
+    <x:t>프로젝트 수행 계획서 작성(최종본 작성)</x:t>
   </x:si>
   <x:si>
     <x:t>기</x:t>
@@ -4141,7 +4144,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -4149,7 +4152,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -4157,11 +4160,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -4169,30 +4172,30 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
       <x:c r="A6" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>0.625</x:v>
@@ -4207,15 +4210,15 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
       <x:c r="A7" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B7" s="3">
         <x:v>0.75</x:v>
@@ -4230,15 +4233,15 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
       <x:c r="A8" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>0.5</x:v>
@@ -4253,15 +4256,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F8" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
       <x:c r="A9" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>0.97430555555555554</x:v>
@@ -4276,15 +4279,15 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>0.52777777777777779</x:v>
@@ -4299,15 +4302,15 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="F10" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="15" customHeight="1">
       <x:c r="A11" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.4375</x:v>
@@ -4322,15 +4325,15 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G11" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="15" customHeight="1">
       <x:c r="A12" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -4345,15 +4348,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F12" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G12" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="15" customHeight="1">
       <x:c r="A13" s="23" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B13" s="24">
         <x:v>0.35416666666666669</x:v>
@@ -4368,15 +4371,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F13" s="18" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G13" s="25" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G13" s="25" t="s">
-        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="3">
         <x:v>0.73611111111111116</x:v>
@@ -4391,15 +4394,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="F14" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="15" customHeight="1">
       <x:c r="A15" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B15" s="3">
         <x:v>0.50694444444444442</x:v>
@@ -4414,15 +4417,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F15" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G15" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" ht="15" customHeight="1">
       <x:c r="A16" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B16" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -4437,15 +4440,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F16" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G16" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" ht="15" customHeight="1">
       <x:c r="A17" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B17" s="3">
         <x:v>0.69791666666666663</x:v>
@@ -4460,15 +4463,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F17" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" ht="15" customHeight="1">
       <x:c r="A18" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B18" s="3">
         <x:v>0.5625</x:v>
@@ -4483,15 +4486,15 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="F18" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
       <x:c r="A19" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B19" s="3">
         <x:v>0.67708333333333337</x:v>
@@ -4506,10 +4509,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F19" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:7" ht="15" customHeight="1">
@@ -4714,7 +4717,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -4722,7 +4725,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -4730,11 +4733,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -4742,30 +4745,30 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
       <x:c r="A6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>0.5</x:v>
@@ -4780,15 +4783,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="6">
         <x:v>0.4375</x:v>
@@ -4803,15 +4806,15 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F7" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
       <x:c r="A8" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -4826,15 +4829,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
       <x:c r="A9" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>0.72916666666666663</x:v>
@@ -4849,15 +4852,15 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -4872,15 +4875,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F10" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="15" customHeight="1">
       <x:c r="A11" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B11" s="3">
         <x:v>0.39583333333333331</x:v>
@@ -4895,10 +4898,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" ht="15" customHeight="1">
@@ -4910,7 +4913,7 @@
       <x:c r="F12" s="17"/>
       <x:c r="G12" s="4"/>
       <x:c r="J12" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="15" customHeight="1">
@@ -5178,7 +5181,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -5186,7 +5189,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -5194,11 +5197,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -5206,25 +5209,25 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
@@ -5244,10 +5247,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
@@ -5267,10 +5270,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F7" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
@@ -5290,10 +5293,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
@@ -5313,10 +5316,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
@@ -5336,10 +5339,10 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="F10" s="35" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G10" s="37" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="15" customHeight="1">
@@ -5359,10 +5362,10 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="F11" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G11" s="38" t="s">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" ht="15" customHeight="1">
@@ -5382,10 +5385,10 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="F12" s="35" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G12" s="37" t="s">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -5405,10 +5408,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F13" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G13" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
@@ -5667,7 +5670,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -5675,7 +5678,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -5683,11 +5686,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -5695,30 +5698,30 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
       <x:c r="A6" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B6" s="6">
         <x:v>0.4375</x:v>
@@ -5733,15 +5736,15 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F6" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G6" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
       <x:c r="A7" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -5756,15 +5759,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F7" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
       <x:c r="A8" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>0.72916666666666663</x:v>
@@ -5779,15 +5782,15 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
       <x:c r="A9" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -5802,15 +5805,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>0.70833333333333337</x:v>
@@ -5825,10 +5828,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="F10" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="15" customHeight="1">
@@ -6114,7 +6117,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -6122,7 +6125,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -6130,11 +6133,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -6142,30 +6145,30 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
       <x:c r="A6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>0.5</x:v>
@@ -6180,15 +6183,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="6">
         <x:v>0.4375</x:v>
@@ -6203,15 +6206,15 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F7" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
       <x:c r="A8" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -6226,15 +6229,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
       <x:c r="A9" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>0.72916666666666663</x:v>
@@ -6249,10 +6252,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
@@ -6532,7 +6535,7 @@
   <x:dimension ref="A1:G38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="125" workbookViewId="0">
-      <x:selection activeCell="G12" activeCellId="0" sqref="G12:G12"/>
+      <x:selection activeCell="G17" activeCellId="0" sqref="G17:G17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.9"/>
@@ -6547,7 +6550,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -6555,7 +6558,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -6563,11 +6566,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -6575,30 +6578,30 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">
       <x:c r="A6" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="3">
         <x:v>0.5</x:v>
@@ -6613,15 +6616,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F6" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="15" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="6">
         <x:v>0.4375</x:v>
@@ -6636,15 +6639,15 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="F7" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" ht="15" customHeight="1">
       <x:c r="A8" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B8" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -6659,15 +6662,15 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F8" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" ht="15" customHeight="1">
       <x:c r="A9" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B9" s="3">
         <x:v>0.72916666666666663</x:v>
@@ -6682,15 +6685,15 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F9" s="18" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G9" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" ht="15" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B10" s="3">
         <x:v>0.57291666666666663</x:v>
@@ -6705,15 +6708,15 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F10" s="17" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G10" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" ht="15" customHeight="1">
       <x:c r="A11" s="15" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="6">
         <x:v>0.83333333333333337</x:v>
@@ -6728,15 +6731,15 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="F11" s="18" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B12" s="3">
         <x:v>0.67708333333333337</x:v>
@@ -6751,15 +6754,15 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" ht="15" customHeight="1">
       <x:c r="A13" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" s="3">
         <x:v>0.41666666666666669</x:v>
@@ -6774,20 +6777,34 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="F13" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G13" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="14"/>
-      <x:c r="B14" s="3"/>
-      <x:c r="C14" s="3"/>
-      <x:c r="D14" s="9"/>
-      <x:c r="E14" s="17"/>
-      <x:c r="F14" s="17"/>
-      <x:c r="G14" s="4"/>
+      <x:c r="A14" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B14" s="3">
+        <x:v>0.45833333333333331</x:v>
+      </x:c>
+      <x:c r="C14" s="3">
+        <x:v>0.54166666666666663</x:v>
+      </x:c>
+      <x:c r="D14" s="9">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E14" s="17">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F14" s="17" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G14" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:7" ht="15" customHeight="1">
       <x:c r="A15" s="14"/>
@@ -7036,7 +7053,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="11.85" customHeight="1">
       <x:c r="A1" s="13" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="1"/>
@@ -7044,7 +7061,7 @@
       <x:c r="E1" s="7"/>
       <x:c r="F1" s="7"/>
       <x:c r="G1" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1" ht="11.85" customHeight="1">
@@ -7052,11 +7069,11 @@
     </x:row>
     <x:row r="3" spans="1:6" ht="11.85" customHeight="1">
       <x:c r="A3" s="20" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="D3" s="20" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E3"/>
       <x:c r="F3"/>
@@ -7064,25 +7081,25 @@
     <x:row r="4" ht="11.85" customHeight="1"/>
     <x:row r="5" spans="1:7" s="11" customFormat="1" ht="25.75">
       <x:c r="A5" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="12" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F5" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" ht="15" customHeight="1">

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749438BE-E645-485A-B76A-59C5CBD749D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6720" activeTab="4"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,12 +208,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -389,12 +390,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -571,12 +572,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -753,12 +754,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -935,12 +936,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -954,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1117,12 +1118,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -3879,6 +3880,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3896,6 +3898,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Setting, </t>
     </r>
@@ -3913,6 +3916,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3930,6 +3934,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3962,6 +3967,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -3994,6 +4000,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4011,6 +4018,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Android Studio </t>
     </r>
@@ -4028,6 +4036,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4060,6 +4069,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4092,6 +4102,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4109,6 +4120,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4126,6 +4138,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4143,6 +4156,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4160,6 +4174,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4192,6 +4207,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4209,6 +4225,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4226,6 +4243,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4243,6 +4261,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4260,6 +4279,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4277,6 +4297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4309,6 +4330,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4337,12 +4359,548 @@
       <t>rototyping</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Target App Ideation (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target App Ideation (2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target App Ideation (3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>팝업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> ui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보완</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Prototyping Sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -4602,7 +5160,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4909,7 +5467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -4917,17 +5475,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -4940,10 +5498,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -4954,8 +5512,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -4978,7 +5536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -5001,7 +5559,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -5024,7 +5582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
@@ -5047,7 +5605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -5070,7 +5628,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -5093,7 +5651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>42</v>
       </c>
@@ -5116,7 +5674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>42</v>
       </c>
@@ -5139,7 +5697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>46</v>
       </c>
@@ -5162,7 +5720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>46</v>
       </c>
@@ -5185,7 +5743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -5208,7 +5766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
@@ -5231,7 +5789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
@@ -5254,7 +5812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -5277,7 +5835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
@@ -5300,7 +5858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>66</v>
       </c>
@@ -5323,7 +5881,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>67</v>
       </c>
@@ -5346,7 +5904,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>71</v>
       </c>
@@ -5369,7 +5927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5378,7 +5936,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5387,7 +5945,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5396,7 +5954,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5405,7 +5963,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5414,7 +5972,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5423,7 +5981,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5432,7 +5990,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5441,7 +5999,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5450,7 +6008,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5459,7 +6017,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5468,7 +6026,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5477,7 +6035,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5486,7 +6044,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5495,7 +6053,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5504,7 +6062,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5525,7 +6083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -5533,17 +6091,17 @@
       <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -5556,10 +6114,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -5570,8 +6128,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +6152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -5617,7 +6175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -5640,7 +6198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
@@ -5663,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -5686,7 +6244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -5709,7 +6267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
@@ -5732,7 +6290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>49</v>
       </c>
@@ -5756,7 +6314,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>38</v>
       </c>
@@ -5779,7 +6337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
@@ -5802,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5811,7 +6369,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5820,7 +6378,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5829,7 +6387,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5838,7 +6396,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5847,7 +6405,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5856,7 +6414,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5865,7 +6423,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5874,7 +6432,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5883,7 +6441,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5892,7 +6450,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5901,7 +6459,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5910,7 +6468,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5919,7 +6477,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5928,7 +6486,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5937,7 +6495,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5946,7 +6504,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5955,7 +6513,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5964,7 +6522,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5973,7 +6531,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5982,7 +6540,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5991,7 +6549,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6000,7 +6558,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6009,7 +6567,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6030,25 +6588,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6061,10 +6619,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -6075,8 +6633,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6099,7 +6657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -6122,7 +6680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -6142,10 +6700,10 @@
         <v>63</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -6165,10 +6723,10 @@
         <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -6188,10 +6746,10 @@
         <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -6214,7 +6772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -6237,7 +6795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -6260,15 +6818,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
       <c r="B13" s="3">
-        <v>0.67708333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -6280,46 +6838,102 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>43739</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>75</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>43743</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>120</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>43744</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>90</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>43745</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>30</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6328,7 +6942,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6337,7 +6951,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6346,7 +6960,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6355,7 +6969,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6364,7 +6978,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6373,7 +6987,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6382,7 +6996,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6391,7 +7005,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6400,7 +7014,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6409,7 +7023,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6418,7 +7032,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6427,7 +7041,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6436,7 +7050,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6445,7 +7059,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6454,7 +7068,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6463,7 +7077,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6472,7 +7086,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6481,7 +7095,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6490,7 +7104,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6499,7 +7113,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6520,7 +7134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -6528,17 +7142,17 @@
       <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6551,10 +7165,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -6565,8 +7179,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +7203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>42</v>
       </c>
@@ -6612,7 +7226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
@@ -6635,7 +7249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -6658,7 +7272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
@@ -6681,7 +7295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
@@ -6704,7 +7318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6713,7 +7327,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6722,7 +7336,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6731,7 +7345,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6740,7 +7354,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6749,7 +7363,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6758,7 +7372,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6767,7 +7381,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6776,7 +7390,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6785,7 +7399,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6794,7 +7408,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6803,7 +7417,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6812,7 +7426,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6821,7 +7435,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6830,7 +7444,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6839,7 +7453,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6848,7 +7462,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6857,7 +7471,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6866,7 +7480,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6875,7 +7489,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6884,7 +7498,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6893,7 +7507,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6902,7 +7516,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6911,7 +7525,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6920,7 +7534,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6929,7 +7543,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6938,7 +7552,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6947,7 +7561,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6968,25 +7582,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6999,10 +7613,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -7013,8 +7627,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7037,7 +7651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -7060,7 +7674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -7083,7 +7697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7106,7 +7720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7129,7 +7743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -7152,7 +7766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -7175,7 +7789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -7198,7 +7812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -7221,7 +7835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -7244,7 +7858,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -7267,7 +7881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -7290,7 +7904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -7313,7 +7927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7322,7 +7936,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7331,7 +7945,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7340,7 +7954,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7349,7 +7963,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7358,7 +7972,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7367,7 +7981,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7376,7 +7990,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7385,7 +7999,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7394,7 +8008,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7403,7 +8017,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7412,7 +8026,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7421,7 +8035,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7430,7 +8044,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7439,7 +8053,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7448,7 +8062,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7457,7 +8071,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7466,7 +8080,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7475,7 +8089,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7484,7 +8098,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7493,7 +8107,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7514,7 +8128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7522,17 +8136,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7545,10 +8159,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -7559,8 +8173,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7583,7 +8197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>33</v>
       </c>
@@ -7606,7 +8220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>42</v>
       </c>
@@ -7629,7 +8243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
@@ -7652,7 +8266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -7675,7 +8289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -7698,7 +8312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
@@ -7721,7 +8335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -7744,7 +8358,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -7767,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>36</v>
       </c>
@@ -7790,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7799,7 +8413,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7808,7 +8422,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7817,7 +8431,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7826,7 +8440,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7835,7 +8449,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7844,7 +8458,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7853,7 +8467,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7862,7 +8476,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7871,7 +8485,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7880,7 +8494,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7889,7 +8503,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7898,7 +8512,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7907,7 +8521,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7916,7 +8530,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7925,7 +8539,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7934,7 +8548,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7943,7 +8557,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7952,7 +8566,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7961,7 +8575,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7970,7 +8584,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7979,7 +8593,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7988,7 +8602,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7997,7 +8611,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8018,7 +8632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8026,17 +8640,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8049,10 +8663,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>41</v>
       </c>
@@ -8063,8 +8677,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8087,7 +8701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8096,7 +8710,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8105,7 +8719,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8114,7 +8728,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -8123,7 +8737,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8132,7 +8746,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8141,7 +8755,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8150,7 +8764,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8159,7 +8773,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8168,7 +8782,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8177,7 +8791,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8186,7 +8800,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8195,7 +8809,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8204,7 +8818,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8213,7 +8827,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8222,7 +8836,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8231,7 +8845,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8240,7 +8854,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8249,7 +8863,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8258,7 +8872,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8267,7 +8881,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8276,7 +8890,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8285,7 +8899,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8294,7 +8908,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8303,7 +8917,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8312,7 +8926,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8321,7 +8935,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8330,7 +8944,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8339,7 +8953,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8348,7 +8962,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8357,7 +8971,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8366,7 +8980,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8375,7 +8989,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749438BE-E645-485A-B76A-59C5CBD749D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,12 +207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,12 +389,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,12 +571,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,12 +753,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,12 +935,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1118,12 +1117,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -3832,14 +3831,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합본</t>
+      <t xml:space="preserve">Android Studio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치</t>
     </r>
     <r>
       <rPr>
@@ -3853,216 +3854,233 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Setting, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토타입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Android Studio </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Setting, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토타입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디자인</t>
+      <t xml:space="preserve">SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작업</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SQLite </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작업</t>
+      <t xml:space="preserve">Github </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Android Studio </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Github </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, Android Studio </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학습</t>
+      <t xml:space="preserve">Application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Application </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>과</t>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용한</t>
     </r>
     <r>
       <rPr>
@@ -4080,22 +4098,76 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>연동</t>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>ListView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
+      <t>DB browser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
     </r>
     <r>
       <rPr>
@@ -4113,7 +4185,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이용한</t>
+      <t>통한</t>
     </r>
     <r>
       <rPr>
@@ -4167,40 +4239,58 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학습</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>DB browser</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
+      <t xml:space="preserve">Prototyping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과물</t>
     </r>
     <r>
       <rPr>
@@ -4218,226 +4308,660 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>통한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
+      <t>제작</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Prototyping </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과물</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rototyping</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>rototyping</t>
+      <t>Target App Ideation (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target App Ideation (2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Target App Ideation (3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>팝업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> ui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보완</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Prototyping Sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Target App Ideation (1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>Use Case Spec (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Target App Ideation (2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>Use Case Spec (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4449,13 +4973,14 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>수정본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4467,440 +4992,24 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Target App Ideation (3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Application DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>깃헙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>협업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>팝업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> ui </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보완</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터베이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Data Creation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Prototyping Sample </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -5051,7 +5160,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -5157,10 +5266,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5467,12 +5578,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5923,18 +6034,32 @@
       <c r="F22" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="4"/>
+      <c r="G22" s="54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" s="9">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17">
+        <v>70</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -6083,7 +6208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -6588,12 +6713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N9" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6700,7 +6825,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6723,7 +6848,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6746,7 +6871,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6818,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -6838,10 +6963,10 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43739</v>
       </c>
@@ -6861,7 +6986,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6884,7 +7009,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6907,7 +7032,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6930,7 +7055,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7134,7 +7259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7582,7 +7707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7760,10 +7885,10 @@
         <v>300</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7783,10 +7908,10 @@
         <v>150</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7806,10 +7931,10 @@
         <v>90</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7829,10 +7954,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7875,10 +8000,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7898,10 +8023,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7921,10 +8046,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,7 +8253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8632,7 +8757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -18,9 +18,8 @@
     <sheet name="이성준" sheetId="4" r:id="rId4"/>
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
-    <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1116,190 +1115,8 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Soojin Park:
-작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Soojin Park:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>중간에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> interrupt </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>걸린</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>포함</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>작업시간</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>. 10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>분</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단위로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">작성
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -2593,6 +2410,395 @@
   </si>
   <si>
     <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>10월 7일</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>10월 4일</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>팀명: 6조</t>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월 1일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Prototyping</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <r>
       <t>작성자명</t>
     </r>
     <r>
@@ -2605,395 +2811,20 @@
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>10월 7일</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>10월 4일</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>팀명: 6조</t>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 29</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월 1일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Prototyping</t>
-  </si>
-  <si>
-    <t>Activity</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나승원</t>
+    </r>
+  </si>
+  <si>
+    <t>Delta Time</t>
   </si>
   <si>
     <r>
@@ -3018,11 +2849,58 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>나승원</t>
-    </r>
-  </si>
-  <si>
-    <t>Delta Time</t>
+      <t>최재영</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3047,57 +2925,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>최재영</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>깃헙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>협업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
+      <t>이성준</t>
     </r>
   </si>
   <si>
@@ -3123,7 +2951,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이성준</t>
+      <t>김정현</t>
     </r>
   </si>
   <si>
@@ -3149,7 +2977,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>김정현</t>
+      <t>백지수</t>
     </r>
   </si>
   <si>
@@ -3175,32 +3003,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>백지수</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>작성자명</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>황보진우</t>
     </r>
   </si>
@@ -3532,41 +3334,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4900,17 +4667,144 @@
   </si>
   <si>
     <r>
-      <t>Use Case Spec (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합본작성</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
     </r>
     <r>
       <rPr>
@@ -4925,7 +4819,83 @@
   </si>
   <si>
     <r>
-      <t>Use Case Spec (</t>
+      <t xml:space="preserve">Use Case Specification 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
     </r>
     <r>
       <rPr>
@@ -4963,26 +4933,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
     <r>
       <rPr>
@@ -5001,7 +4958,62 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -5160,7 +5172,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -5268,6 +5280,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -5583,7 +5598,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5614,11 +5629,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -5629,22 +5644,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5667,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5695,7 +5710,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>0.5</v>
@@ -5718,7 +5733,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <v>0.97430555555555554</v>
@@ -5736,12 +5751,12 @@
         <v>12</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>0.52777777777777779</v>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6">
         <v>0.4375</v>
@@ -5779,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>15</v>
@@ -5787,7 +5802,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="3">
         <v>0.57291666666666663</v>
@@ -5802,7 +5817,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>20</v>
@@ -5810,7 +5825,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="24">
         <v>0.35416666666666669</v>
@@ -5825,15 +5840,15 @@
         <v>65</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="3">
         <v>0.73611111111111116</v>
@@ -5848,7 +5863,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>19</v>
@@ -5871,7 +5886,7 @@
         <v>70</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>21</v>
@@ -5879,7 +5894,7 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>0.57291666666666663</v>
@@ -5902,7 +5917,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3">
         <v>0.69791666666666663</v>
@@ -5925,7 +5940,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3">
         <v>0.5625</v>
@@ -5948,7 +5963,7 @@
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>0.67708333333333337</v>
@@ -5966,12 +5981,12 @@
         <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>66</v>
+      <c r="A20" s="53" t="s">
+        <v>88</v>
       </c>
       <c r="B20" s="3">
         <v>0.6875</v>
@@ -5986,15 +6001,15 @@
         <v>210</v>
       </c>
       <c r="F20" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="45" t="s">
         <v>68</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>0.89583333333333337</v>
@@ -6009,15 +6024,15 @@
         <v>100</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="3">
         <v>4.8611111111111112E-2</v>
@@ -6032,7 +6047,7 @@
         <v>130</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>89</v>
@@ -6040,7 +6055,7 @@
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="3">
         <v>0.13194444444444445</v>
@@ -6055,23 +6070,37 @@
         <v>70</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17">
+        <v>50</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -6213,7 +6242,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6244,11 +6273,11 @@
     </row>
     <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -6259,27 +6288,27 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>0.5</v>
@@ -6302,7 +6331,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <v>0.4375</v>
@@ -6317,7 +6346,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -6325,7 +6354,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>0.57291666666666663</v>
@@ -6340,7 +6369,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -6348,7 +6377,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>0.72916666666666663</v>
@@ -6363,7 +6392,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
@@ -6371,7 +6400,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3">
         <v>0.57291666666666663</v>
@@ -6394,7 +6423,7 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>0.39583333333333331</v>
@@ -6417,7 +6446,7 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3">
         <v>0.67708333333333337</v>
@@ -6435,13 +6464,13 @@
         <v>22</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>0.64583333333333337</v>
@@ -6456,15 +6485,15 @@
         <v>100</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
         <v>0.5625</v>
@@ -6749,11 +6778,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -6764,22 +6793,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6822,10 +6851,10 @@
         <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6845,10 +6874,10 @@
         <v>70</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6868,10 +6897,10 @@
         <v>75</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6891,7 +6920,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>7</v>
@@ -6914,7 +6943,7 @@
         <v>180</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>4</v>
@@ -6937,7 +6966,7 @@
         <v>190</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>2</v>
@@ -6963,7 +6992,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -6986,7 +7015,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7006,10 +7035,10 @@
         <v>120</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7029,10 +7058,10 @@
         <v>90</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7052,10 +7081,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7295,11 +7324,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7310,27 +7339,27 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6">
         <v>0.4375</v>
@@ -7345,7 +7374,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -7353,7 +7382,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>0.57291666666666663</v>
@@ -7368,7 +7397,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -7376,7 +7405,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>0.72916666666666663</v>
@@ -7391,7 +7420,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>19</v>
@@ -7399,7 +7428,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
         <v>0.57291666666666663</v>
@@ -7422,7 +7451,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>0.70833333333333337</v>
@@ -7743,11 +7772,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7758,22 +7787,22 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7816,7 +7845,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -7839,7 +7868,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -7862,7 +7891,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
@@ -7885,10 +7914,10 @@
         <v>300</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7908,10 +7937,10 @@
         <v>150</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7931,10 +7960,10 @@
         <v>90</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7954,10 +7983,10 @@
         <v>120</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7980,7 +8009,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -8000,10 +8029,10 @@
         <v>40</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -8023,10 +8052,10 @@
         <v>60</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -8046,10 +8075,10 @@
         <v>30</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8289,11 +8318,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -8304,27 +8333,27 @@
         <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3">
         <v>0.5</v>
@@ -8347,7 +8376,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <v>0.4375</v>
@@ -8362,7 +8391,7 @@
         <v>80</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
@@ -8370,7 +8399,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>0.57291666666666663</v>
@@ -8385,7 +8414,7 @@
         <v>70</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>20</v>
@@ -8393,7 +8422,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3">
         <v>0.72916666666666663</v>
@@ -8408,7 +8437,7 @@
         <v>75</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
@@ -8416,7 +8445,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3">
         <v>0.57291666666666663</v>
@@ -8439,7 +8468,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="6">
         <v>0.83333333333333337</v>
@@ -8462,7 +8491,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3">
         <v>0.67708333333333337</v>
@@ -8480,7 +8509,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8508,7 +8537,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
         <v>0.45833333333333331</v>
@@ -8528,384 +8557,6 @@
       <c r="G14" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"돋움,Regular"&amp;8Adapted from &amp;"돋움,Italic"A Discipline for Software Engineering,&amp;"돋움,Regular"by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034034E9-5F4C-49D4-A761-77C458C99C09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -206,12 +207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -388,12 +389,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -570,12 +571,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -752,12 +753,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -934,12 +935,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="97">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -4113,6 +4114,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4131,6 +4133,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4149,12 +4152,845 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
     <r>
+      <t>Target App Ideation (3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Application DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>팝업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보완</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Data Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prototyping Sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Case Specification 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target App Refinement</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Target App Ideation (2</t>
     </r>
     <r>
@@ -4172,6 +5008,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4190,6 +5027,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4208,825 +5046,106 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Target App Ideation (3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Application DB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>깃헙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>협업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>팝업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> ui </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개선</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보완</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터베이스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연동</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Data Creation </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>최종</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> Prototyping Sample </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UC Spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개선 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prototyping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기획 회의</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일</t>
-    </r>
+    <t>Prototyping</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Use Case Specification </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+      <t>Sequence Diagram 구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 일부 UI 개선</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Use Case Specification 1.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>식재료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>장보기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Use Case Specification 1.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, PMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
+    <t>Code Refactoring (Boundary, Control, Entity)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5105,6 +5224,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5172,7 +5298,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -5283,10 +5409,12 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5593,11 +5721,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -5986,7 +6114,7 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="3">
         <v>0.6875</v>
@@ -6050,12 +6178,12 @@
         <v>66</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3">
         <v>0.13194444444444445</v>
@@ -6073,12 +6201,12 @@
         <v>66</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3">
         <v>2.0833333333333332E-2</v>
@@ -6096,7 +6224,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6237,7 +6365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -6742,12 +6870,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N9" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6876,8 +7004,8 @@
       <c r="F8" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
+      <c r="G8" s="57" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6900,7 +7028,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6992,7 +7120,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -7015,7 +7143,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7038,7 +7166,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7189,7 @@
         <v>49</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7084,35 +7212,77 @@
         <v>49</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
+      <c r="A18" s="14">
+        <v>43749</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17">
+        <v>100</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>43750</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.9375</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>30</v>
+      </c>
+      <c r="E19" s="17">
+        <v>60</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D20" s="9">
+        <v>30</v>
+      </c>
+      <c r="E20" s="17">
+        <v>90</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
@@ -7288,7 +7458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7736,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8282,7 +8452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034034E9-5F4C-49D4-A761-77C458C99C09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4B9A0-DA65-4E9B-B32A-4B03F3747BA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,7 +1117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5130,6 +5130,14 @@
       </rPr>
       <t xml:space="preserve"> 및 일부 UI 개선</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Refactoring (Boundary, Control, Entity)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -6875,7 +6883,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7285,13 +7293,27 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>60</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4B9A0-DA65-4E9B-B32A-4B03F3747BA6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,17 +19,17 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,12 +206,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,12 +388,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,12 +570,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -753,12 +752,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -772,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -935,12 +934,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5142,13 +5141,77 @@
   </si>
   <si>
     <t>Code Refactoring (Boundary, Control, Entity)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC Spec 개선 및 2차 Prototyping 기획 회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code Refactoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -5422,7 +5485,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5729,7 +5792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -5737,17 +5800,17 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -5760,10 +5823,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -5774,8 +5837,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5798,7 +5861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -5821,7 +5884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -5844,7 +5907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -5890,7 +5953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -5913,7 +5976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>41</v>
       </c>
@@ -5936,7 +5999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
@@ -5959,7 +6022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
@@ -5982,7 +6045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
@@ -6005,7 +6068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -6028,7 +6091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
@@ -6051,7 +6114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6074,7 +6137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -6097,7 +6160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -6120,7 +6183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
         <v>87</v>
       </c>
@@ -6143,7 +6206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
@@ -6166,7 +6229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
@@ -6189,7 +6252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>85</v>
       </c>
@@ -6212,7 +6275,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>86</v>
       </c>
@@ -6235,7 +6298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6244,7 +6307,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6253,7 +6316,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6262,7 +6325,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6271,7 +6334,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6280,7 +6343,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6289,7 +6352,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6298,7 +6361,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6307,7 +6370,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6316,7 +6379,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6325,7 +6388,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6334,7 +6397,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6343,7 +6406,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6352,7 +6415,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6373,7 +6436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -6381,17 +6444,17 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6404,10 +6467,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -6418,8 +6481,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6442,7 +6505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6465,7 +6528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -6488,7 +6551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -6511,7 +6574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6534,7 +6597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -6557,7 +6620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -6580,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>48</v>
       </c>
@@ -6604,7 +6667,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -6627,7 +6690,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>35</v>
       </c>
@@ -6650,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6659,7 +6722,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6668,7 +6731,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6677,7 +6740,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6686,7 +6749,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6695,7 +6758,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6704,7 +6767,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6713,7 +6776,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6722,7 +6785,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6731,7 +6794,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6740,7 +6803,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6749,7 +6812,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6758,7 +6821,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6767,7 +6830,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6776,7 +6839,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6785,7 +6848,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6794,7 +6857,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6803,7 +6866,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6812,7 +6875,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6821,7 +6884,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6830,7 +6893,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6839,7 +6902,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6848,7 +6911,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6857,7 +6920,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6878,25 +6941,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6909,10 +6972,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -6923,8 +6986,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6947,7 +7010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -6970,7 +7033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -6993,7 +7056,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7016,7 +7079,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7039,7 +7102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -7062,7 +7125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -7085,7 +7148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -7108,7 +7171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -7131,7 +7194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>43739</v>
       </c>
@@ -7154,7 +7217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>43743</v>
       </c>
@@ -7177,7 +7240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>43744</v>
       </c>
@@ -7200,7 +7263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>43745</v>
       </c>
@@ -7223,7 +7286,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -7246,7 +7309,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43750</v>
       </c>
@@ -7269,7 +7332,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -7292,7 +7355,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>43751</v>
       </c>
@@ -7315,7 +7378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7324,7 +7387,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7333,7 +7396,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7342,7 +7405,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7351,7 +7414,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7360,7 +7423,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7369,7 +7432,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7378,7 +7441,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7387,7 +7450,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7396,7 +7459,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7405,7 +7468,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7414,7 +7477,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7423,7 +7486,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7432,7 +7495,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7441,7 +7504,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7450,7 +7513,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7459,7 +7522,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7480,7 +7543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7488,17 +7551,17 @@
       <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7511,10 +7574,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7525,8 +7588,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7549,7 +7612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -7572,7 +7635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -7595,7 +7658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -7618,7 +7681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -7641,7 +7704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>47</v>
       </c>
@@ -7664,7 +7727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7673,7 +7736,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7682,7 +7745,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7691,7 +7754,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7700,7 +7763,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7709,7 +7772,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7718,7 +7781,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7727,7 +7790,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7736,7 +7799,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7745,7 +7808,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7754,7 +7817,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7763,7 +7826,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7772,7 +7835,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7781,7 +7844,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7790,7 +7853,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7799,7 +7862,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7808,7 +7871,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7817,7 +7880,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7826,7 +7889,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7835,7 +7898,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7844,7 +7907,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7853,7 +7916,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7862,7 +7925,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7871,7 +7934,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7880,7 +7943,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7889,7 +7952,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7898,7 +7961,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7907,7 +7970,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7928,25 +7991,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7959,10 +8022,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7973,8 +8036,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7997,7 +8060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -8020,7 +8083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -8043,7 +8106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -8066,7 +8129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -8089,7 +8152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -8112,7 +8175,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -8135,7 +8198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -8158,7 +8221,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -8181,7 +8244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -8204,7 +8267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -8227,7 +8290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -8250,7 +8313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -8273,34 +8336,76 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>43749</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17">
+        <v>100</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>90</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>43751</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>60</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8309,7 +8414,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8318,7 +8423,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8327,7 +8432,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8336,7 +8441,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8345,7 +8450,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8354,7 +8459,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8363,7 +8468,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8372,7 +8477,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8381,7 +8486,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8390,7 +8495,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8399,7 +8504,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8408,7 +8513,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8417,7 +8522,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8426,7 +8531,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8435,7 +8540,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8444,7 +8549,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8453,7 +8558,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8474,7 +8579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8482,17 +8587,17 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8505,10 +8610,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -8519,8 +8624,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8543,7 +8648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -8566,7 +8671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -8589,7 +8694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8612,7 +8717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -8635,7 +8740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -8658,7 +8763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -8681,7 +8786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -8704,7 +8809,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -8727,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -8750,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8759,7 +8864,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8768,7 +8873,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8777,7 +8882,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8786,7 +8891,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8795,7 +8900,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8804,7 +8909,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8813,7 +8918,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8822,7 +8927,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8831,7 +8936,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8840,7 +8945,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8849,7 +8954,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8858,7 +8963,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8867,7 +8972,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8876,7 +8981,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8885,7 +8990,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8894,7 +8999,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8903,7 +9008,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8912,7 +9017,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8921,7 +9026,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8930,7 +9035,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8939,7 +9044,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8948,7 +9053,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8957,7 +9062,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="106">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5205,6 +5205,59 @@
       </rPr>
       <t>개선</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 공부(View, View Group)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 공부(Activity)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7996,7 +8049,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8336,7 +8389,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -8382,7 +8435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -8405,32 +8458,74 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>43752</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D21" s="9">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17">
+        <v>85</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>43752</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.90625</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>40</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="14">
+        <v>43753</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D23" s="9">
+        <v>20</v>
+      </c>
+      <c r="E23" s="17">
+        <v>195</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A14DB95-B5DB-45E0-BE80-FE1991E74132}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -206,12 +207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -388,12 +389,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -570,12 +571,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -752,12 +753,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -934,12 +935,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5259,12 +5260,63 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GridView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -5538,7 +5590,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5845,7 +5897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -5853,17 +5905,17 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -5876,10 +5928,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -5890,8 +5942,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5914,7 +5966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -5937,7 +5989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -5960,7 +6012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -5983,7 +6035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -6006,7 +6058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -6029,7 +6081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>41</v>
       </c>
@@ -6052,7 +6104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
@@ -6075,7 +6127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
@@ -6098,7 +6150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
@@ -6121,7 +6173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -6144,7 +6196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
@@ -6167,7 +6219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6190,7 +6242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -6213,7 +6265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -6236,7 +6288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>87</v>
       </c>
@@ -6259,7 +6311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
@@ -6282,7 +6334,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
@@ -6305,7 +6357,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>85</v>
       </c>
@@ -6328,7 +6380,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>86</v>
       </c>
@@ -6351,7 +6403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6360,7 +6412,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6369,7 +6421,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6378,7 +6430,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6387,7 +6439,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6396,7 +6448,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6405,7 +6457,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6414,7 +6466,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6423,7 +6475,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6432,7 +6484,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6441,7 +6493,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6450,7 +6502,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6459,7 +6511,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6468,7 +6520,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6489,25 +6541,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6520,10 +6572,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -6534,8 +6586,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6558,7 +6610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6581,7 +6633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -6604,7 +6656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -6627,7 +6679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6650,7 +6702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -6673,7 +6725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -6696,7 +6748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>48</v>
       </c>
@@ -6720,7 +6772,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -6743,7 +6795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>35</v>
       </c>
@@ -6766,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6775,7 +6827,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6784,7 +6836,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6793,7 +6845,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6802,7 +6854,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6811,7 +6863,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6820,7 +6872,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6829,7 +6881,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6838,7 +6890,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6847,7 +6899,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6856,7 +6908,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6865,7 +6917,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6874,7 +6926,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6883,7 +6935,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6892,7 +6944,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6901,7 +6953,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6910,7 +6962,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6919,7 +6971,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6928,7 +6980,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6937,7 +6989,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6946,7 +6998,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6955,7 +7007,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6964,7 +7016,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6973,7 +7025,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6994,25 +7046,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7025,10 +7077,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7039,8 +7091,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7063,7 +7115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -7086,7 +7138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -7109,7 +7161,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7132,7 +7184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7155,7 +7207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -7178,7 +7230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -7201,7 +7253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -7224,7 +7276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -7247,7 +7299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>43739</v>
       </c>
@@ -7270,7 +7322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>43743</v>
       </c>
@@ -7293,7 +7345,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>43744</v>
       </c>
@@ -7316,7 +7368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>43745</v>
       </c>
@@ -7339,7 +7391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -7362,7 +7414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>43750</v>
       </c>
@@ -7385,7 +7437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -7408,7 +7460,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43751</v>
       </c>
@@ -7431,16 +7483,30 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>43753</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>45</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7449,7 +7515,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7458,7 +7524,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7467,7 +7533,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7476,7 +7542,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7485,7 +7551,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7494,7 +7560,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7503,7 +7569,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7512,7 +7578,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7521,7 +7587,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7530,7 +7596,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7539,7 +7605,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7548,7 +7614,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7557,7 +7623,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7566,7 +7632,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7575,7 +7641,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7596,7 +7662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7604,17 +7670,17 @@
       <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7627,10 +7693,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7641,8 +7707,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7665,7 +7731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -7688,7 +7754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -7711,7 +7777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -7734,7 +7800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -7757,7 +7823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>47</v>
       </c>
@@ -7780,7 +7846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7789,7 +7855,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7798,7 +7864,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7807,7 +7873,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7816,7 +7882,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7825,7 +7891,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7834,7 +7900,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7843,7 +7909,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7852,7 +7918,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7861,7 +7927,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7870,7 +7936,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7879,7 +7945,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7888,7 +7954,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7897,7 +7963,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7906,7 +7972,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7915,7 +7981,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7924,7 +7990,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7933,7 +7999,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7942,7 +8008,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7951,7 +8017,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7960,7 +8026,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7969,7 +8035,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7978,7 +8044,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7987,7 +8053,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7996,7 +8062,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8005,7 +8071,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8014,7 +8080,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8023,7 +8089,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8044,25 +8110,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8075,10 +8141,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -8089,8 +8155,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8113,7 +8179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -8136,7 +8202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -8159,7 +8225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -8182,7 +8248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -8205,7 +8271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -8228,7 +8294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -8251,7 +8317,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -8274,7 +8340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -8297,7 +8363,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -8320,7 +8386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -8343,7 +8409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -8366,7 +8432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -8389,7 +8455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -8412,7 +8478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43751</v>
       </c>
@@ -8435,7 +8501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -8458,7 +8524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>43752</v>
       </c>
@@ -8481,7 +8547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>43752</v>
       </c>
@@ -8504,7 +8570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>43753</v>
       </c>
@@ -8527,7 +8593,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8536,7 +8602,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8545,7 +8611,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8554,7 +8620,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8563,7 +8629,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8572,7 +8638,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8581,7 +8647,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8590,7 +8656,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8599,7 +8665,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8608,7 +8674,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8617,7 +8683,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8626,7 +8692,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8635,7 +8701,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8644,7 +8710,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8653,7 +8719,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8674,25 +8740,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8705,10 +8771,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -8719,8 +8785,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8743,7 +8809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -8766,7 +8832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -8789,7 +8855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8812,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -8835,7 +8901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -8858,7 +8924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -8881,7 +8947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -8904,7 +8970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -8927,7 +8993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -8950,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8959,7 +9025,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8968,7 +9034,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8977,7 +9043,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8986,7 +9052,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8995,7 +9061,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9004,7 +9070,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9013,7 +9079,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9022,7 +9088,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9031,7 +9097,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9040,7 +9106,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9049,7 +9115,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9058,7 +9124,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9067,7 +9133,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9076,7 +9142,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9085,7 +9151,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9094,7 +9160,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9103,7 +9169,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9112,7 +9178,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9121,7 +9187,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9130,7 +9196,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9139,7 +9205,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9148,7 +9214,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9157,7 +9223,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A14DB95-B5DB-45E0-BE80-FE1991E74132}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,12 +206,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,12 +388,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,12 +570,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -753,12 +752,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -772,7 +771,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -935,12 +934,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -954,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5280,6 +5279,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5298,6 +5298,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -5316,7 +5317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -5590,7 +5591,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5897,7 +5898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -5905,17 +5906,17 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -5928,10 +5929,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -5942,8 +5943,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -5989,7 +5990,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>41</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>45</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>31</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -6265,7 +6266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
         <v>87</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>65</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>69</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>85</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>86</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6412,7 +6413,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6421,7 +6422,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6430,7 +6431,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6439,7 +6440,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6448,7 +6449,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6457,7 +6458,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6466,7 +6467,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6475,7 +6476,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6484,7 +6485,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6493,7 +6494,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6502,7 +6503,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6511,7 +6512,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6520,7 +6521,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6541,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -6549,17 +6550,17 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -6572,10 +6573,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -6586,8 +6587,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -6633,7 +6634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -6656,7 +6657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -6702,7 +6703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>47</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>48</v>
       </c>
@@ -6772,7 +6773,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>35</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6827,7 +6828,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6836,7 +6837,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6845,7 +6846,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6854,7 +6855,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6863,7 +6864,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6872,7 +6873,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6881,7 +6882,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6890,7 +6891,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6899,7 +6900,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6908,7 +6909,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6917,7 +6918,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6926,7 +6927,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6935,7 +6936,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6944,7 +6945,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6953,7 +6954,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6962,7 +6963,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6971,7 +6972,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6980,7 +6981,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6989,7 +6990,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6998,7 +6999,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7007,7 +7008,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7016,7 +7017,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7025,7 +7026,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7046,7 +7047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7054,17 +7055,17 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7077,10 +7078,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7091,8 +7092,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>43739</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>43743</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>43744</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>43745</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>43750</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>43751</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>43753</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7515,7 +7516,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7524,7 +7525,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7533,7 +7534,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7542,7 +7543,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7551,7 +7552,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7560,7 +7561,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7569,7 +7570,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7578,7 +7579,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7587,7 +7588,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7596,7 +7597,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7605,7 +7606,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7614,7 +7615,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7623,7 +7624,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7632,7 +7633,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7641,7 +7642,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7662,7 +7663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -7670,17 +7671,17 @@
       <selection activeCell="A9" sqref="A9:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -7693,10 +7694,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -7707,8 +7708,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>47</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7855,7 +7856,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7864,7 +7865,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7873,7 +7874,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7882,7 +7883,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7891,7 +7892,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7900,7 +7901,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7909,7 +7910,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7918,7 +7919,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7927,7 +7928,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7936,7 +7937,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7945,7 +7946,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7954,7 +7955,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7963,7 +7964,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7972,7 +7973,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7981,7 +7982,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7990,7 +7991,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7999,7 +8000,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8008,7 +8009,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8017,7 +8018,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8026,7 +8027,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8035,7 +8036,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8044,7 +8045,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8053,7 +8054,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8062,7 +8063,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8071,7 +8072,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8080,7 +8081,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8089,7 +8090,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8110,25 +8111,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8141,10 +8142,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -8155,8 +8156,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8179,7 +8180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -8294,7 +8295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -8317,7 +8318,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>43749</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>43751</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>43751</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>43752</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>43752</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>43753</v>
       </c>
@@ -8593,25 +8594,53 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>43754</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>60</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>43755</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>60</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8620,7 +8649,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8629,7 +8658,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8638,7 +8667,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8647,7 +8676,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8656,7 +8685,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8665,7 +8694,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8674,7 +8703,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8683,7 +8712,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8692,7 +8721,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8701,7 +8730,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8710,7 +8739,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8719,7 +8748,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8740,25 +8769,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
@@ -8771,10 +8800,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>40</v>
       </c>
@@ -8785,8 +8814,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
@@ -8809,7 +8838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>32</v>
       </c>
@@ -8832,7 +8861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -8855,7 +8884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -8878,7 +8907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -8901,7 +8930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -8924,7 +8953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -8947,7 +8976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>43</v>
       </c>
@@ -8970,7 +8999,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
@@ -8993,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -9016,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9025,7 +9054,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9034,7 +9063,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9043,7 +9072,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9052,7 +9081,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9061,7 +9090,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9070,7 +9099,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9079,7 +9108,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9088,7 +9117,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9097,7 +9126,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9106,7 +9135,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9115,7 +9144,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9124,7 +9153,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9133,7 +9162,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9142,7 +9171,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9151,7 +9180,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9160,7 +9189,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9169,7 +9198,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9178,7 +9207,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9187,7 +9216,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9196,7 +9225,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9205,7 +9234,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9214,7 +9243,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9223,7 +9252,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <r>
       <t xml:space="preserve">Use Case Specification </t>
@@ -5312,6 +5312,80 @@
       </rPr>
       <t>구현</t>
     </r>
+  </si>
+  <si>
+    <t>회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8116,7 +8190,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8556,13 +8630,13 @@
         <v>0.90625</v>
       </c>
       <c r="C22" s="3">
-        <v>0.93402777777777779</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>105</v>
@@ -8591,7 +8665,7 @@
         <v>94</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8619,10 +8693,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B25" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -8637,35 +8711,77 @@
         <v>94</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="14">
+        <v>43755</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>40</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="14">
+        <v>43755</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>70</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="14">
+        <v>43755</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>85</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -5108,6 +5108,636 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>팝업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보완</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Data Creation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Prototyping Sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+  </si>
+  <si>
+    <t>Target App Refinement</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UC Spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개선 및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">차 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prototyping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기획 회의</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sequence Diagram 구상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 일부 UI 개선</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Refactoring (Boundary, Control, Entity)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Refactoring (Boundary, Control, Entity)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GridView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+  </si>
+  <si>
+    <t>UC Spec 개선 및 2차 Prototyping 기획 회의</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code Refactoring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검토</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개선</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 공부(Activity)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Studio 사용법 공부(View, View Group)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5120,7 +5750,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5193,6 +5823,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5260,7 +5897,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -5378,6 +6015,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -5692,7 +6334,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6855,8 +7497,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7104,86 +7746,212 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="4"/>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="59">
+        <v>43739</v>
+      </c>
+      <c r="B14" s="54">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="56">
+        <v>75</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="59">
+        <v>43743</v>
+      </c>
+      <c r="B15" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="54">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="56">
+        <v>120</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="59">
+        <v>43744</v>
+      </c>
+      <c r="B16" s="54">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="54">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="56">
+        <v>90</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="59">
+        <v>43745</v>
+      </c>
+      <c r="B17" s="54">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="56">
+        <v>30</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
+      <c r="A18" s="59">
+        <v>43749</v>
+      </c>
+      <c r="B18" s="54">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D18" s="55">
+        <v>5</v>
+      </c>
+      <c r="E18" s="56">
+        <v>100</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="59">
+        <v>43750</v>
+      </c>
+      <c r="B19" s="54">
+        <v>0.9375</v>
+      </c>
+      <c r="C19" s="54">
+        <v>1</v>
+      </c>
+      <c r="D19" s="55">
+        <v>30</v>
+      </c>
+      <c r="E19" s="56">
+        <v>60</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="59">
+        <v>43751</v>
+      </c>
+      <c r="B20" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="D20" s="55">
+        <v>30</v>
+      </c>
+      <c r="E20" s="56">
+        <v>90</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="59">
+        <v>43751</v>
+      </c>
+      <c r="B21" s="54">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.625</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="56">
+        <v>60</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="59">
+        <v>43753</v>
+      </c>
+      <c r="B22" s="54">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0</v>
+      </c>
+      <c r="E22" s="56">
+        <v>45</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
@@ -7346,7 +8114,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7794,7 +8562,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8134,59 +8902,143 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="4"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="59">
+        <v>43749</v>
+      </c>
+      <c r="B18" s="54">
+        <v>0.6875</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D18" s="55">
+        <v>5</v>
+      </c>
+      <c r="E18" s="56">
+        <v>100</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="59">
+        <v>43751</v>
+      </c>
+      <c r="B19" s="54">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="56">
+        <v>90</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
+        <v>43751</v>
+      </c>
+      <c r="B20" s="54">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="56">
+        <v>60</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="59">
+        <v>43752</v>
+      </c>
+      <c r="B21" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D21" s="55">
+        <v>10</v>
+      </c>
+      <c r="E21" s="56">
+        <v>85</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="59">
+        <v>43752</v>
+      </c>
+      <c r="B22" s="54">
+        <v>0.90625</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0</v>
+      </c>
+      <c r="E22" s="56">
+        <v>40</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="59">
+        <v>43753</v>
+      </c>
+      <c r="B23" s="54">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C23" s="54">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D23" s="55">
+        <v>20</v>
+      </c>
+      <c r="E23" s="56">
+        <v>195</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
@@ -8340,7 +9192,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="12015" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
   <si>
     <r>
       <rPr>
@@ -5588,6 +5588,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5606,6 +5607,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -5738,6 +5740,267 @@
         <charset val="129"/>
       </rPr>
       <t>구현</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GridView, SQLite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <t>회의</t>
+  </si>
+  <si>
+    <t>Initial Data Set</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data Set(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>면요리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Error </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5745,7 +6008,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -5889,15 +6152,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -6020,11 +6285,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="백분율 2" xfId="4"/>
     <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6338,17 +6622,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -6361,10 +6645,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -6375,8 +6659,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -6399,7 +6683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -6422,7 +6706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6445,7 +6729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6468,7 +6752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -6491,7 +6775,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -6514,7 +6798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
@@ -6537,7 +6821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
@@ -6560,7 +6844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>42</v>
       </c>
@@ -6583,7 +6867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -6606,7 +6890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6629,7 +6913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6652,7 +6936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>45</v>
       </c>
@@ -6675,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -6698,7 +6982,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -6721,7 +7005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="43" t="s">
         <v>46</v>
       </c>
@@ -6744,7 +7028,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="43" t="s">
         <v>48</v>
       </c>
@@ -6767,7 +7051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43" t="s">
         <v>51</v>
       </c>
@@ -6790,7 +7074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
         <v>84</v>
       </c>
@@ -6813,7 +7097,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
         <v>87</v>
       </c>
@@ -6836,7 +7120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
         <v>90</v>
       </c>
@@ -6859,7 +7143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6868,7 +7152,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6877,7 +7161,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6886,7 +7170,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6895,7 +7179,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6904,7 +7188,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6913,7 +7197,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6922,7 +7206,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6931,7 +7215,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6940,7 +7224,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6949,7 +7233,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6958,7 +7242,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6967,7 +7251,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6996,17 +7280,17 @@
       <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -7019,10 +7303,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -7033,8 +7317,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -7057,7 +7341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -7080,7 +7364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
@@ -7103,7 +7387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
@@ -7126,7 +7410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -7149,7 +7433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -7172,7 +7456,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
@@ -7195,7 +7479,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>29</v>
       </c>
@@ -7219,7 +7503,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -7242,7 +7526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
@@ -7265,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7274,7 +7558,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7283,7 +7567,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7292,7 +7576,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7301,7 +7585,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7310,7 +7594,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7319,7 +7603,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7328,7 +7612,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7337,7 +7621,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7346,7 +7630,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7355,7 +7639,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7364,7 +7648,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7373,7 +7657,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7382,7 +7666,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7391,7 +7675,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7400,7 +7684,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7409,7 +7693,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7418,7 +7702,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7427,7 +7711,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7436,7 +7720,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7445,7 +7729,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7454,7 +7738,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7463,7 +7747,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7472,7 +7756,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7497,21 +7781,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -7524,10 +7808,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -7538,8 +7822,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -7562,7 +7846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -7585,7 +7869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -7608,7 +7892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7631,7 +7915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7654,7 +7938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -7677,7 +7961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -7700,7 +7984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -7723,7 +8007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -7746,7 +8030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="59">
         <v>43739</v>
       </c>
@@ -7769,7 +8053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="59">
         <v>43743</v>
       </c>
@@ -7792,7 +8076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="59">
         <v>43744</v>
       </c>
@@ -7815,7 +8099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="59">
         <v>43745</v>
       </c>
@@ -7838,7 +8122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -7861,7 +8145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>43750</v>
       </c>
@@ -7884,7 +8168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -7907,7 +8191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <v>43751</v>
       </c>
@@ -7930,7 +8214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
         <v>43753</v>
       </c>
@@ -7953,7 +8237,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7962,7 +8246,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7971,7 +8255,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7980,7 +8264,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7989,7 +8273,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7998,7 +8282,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8007,7 +8291,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8016,7 +8300,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8025,7 +8309,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8034,7 +8318,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8043,7 +8327,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8052,7 +8336,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8061,7 +8345,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8070,7 +8354,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8079,7 +8363,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8088,7 +8372,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8117,17 +8401,17 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -8140,10 +8424,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -8154,8 +8438,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -8178,7 +8462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
@@ -8201,7 +8485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -8224,7 +8508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
@@ -8247,7 +8531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -8270,7 +8554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -8293,7 +8577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8302,7 +8586,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8311,7 +8595,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8320,7 +8604,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8329,7 +8613,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8338,7 +8622,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8347,7 +8631,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8356,7 +8640,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8365,7 +8649,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8374,7 +8658,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8383,7 +8667,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8392,7 +8676,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8401,7 +8685,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8410,7 +8694,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8419,7 +8703,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8428,7 +8712,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8437,7 +8721,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8446,7 +8730,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8455,7 +8739,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8464,7 +8748,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8473,7 +8757,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8482,7 +8766,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8491,7 +8775,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8500,7 +8784,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8509,7 +8793,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8518,7 +8802,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8527,7 +8811,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8536,7 +8820,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8561,21 +8845,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -8588,10 +8872,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -8602,8 +8886,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -8626,7 +8910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -8649,7 +8933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -8672,7 +8956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -8695,7 +8979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -8718,7 +9002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -8741,7 +9025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -8764,7 +9048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -8787,7 +9071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -8810,7 +9094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -8833,7 +9117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -8856,7 +9140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -8879,7 +9163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -8902,7 +9186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -8925,7 +9209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="59">
         <v>43751</v>
       </c>
@@ -8948,7 +9232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -8971,7 +9255,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="59">
         <v>43752</v>
       </c>
@@ -8994,7 +9278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="59">
         <v>43752</v>
       </c>
@@ -9017,7 +9301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="59">
         <v>43753</v>
       </c>
@@ -9040,79 +9324,191 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67">
+        <v>43753</v>
+      </c>
+      <c r="B24" s="65">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C24" s="65">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D24" s="66">
+        <v>20</v>
+      </c>
+      <c r="E24" s="68">
+        <v>195</v>
+      </c>
+      <c r="F24" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="67">
+        <v>43754</v>
+      </c>
+      <c r="B25" s="65">
+        <v>0.875</v>
+      </c>
+      <c r="C25" s="65">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0</v>
+      </c>
+      <c r="E25" s="68">
+        <v>60</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="67">
+        <v>43754</v>
+      </c>
+      <c r="B26" s="65">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C26" s="65">
+        <v>1</v>
+      </c>
+      <c r="D26" s="66">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <v>60</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="67">
+        <v>43755</v>
+      </c>
+      <c r="B27" s="65">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C27" s="65">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
+        <v>40</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="67">
+        <v>43755</v>
+      </c>
+      <c r="B28" s="65">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C28" s="65">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D28" s="66">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <v>70</v>
+      </c>
+      <c r="F28" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="67">
+        <v>43755</v>
+      </c>
+      <c r="B29" s="65">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C29" s="65">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D29" s="66">
+        <v>0</v>
+      </c>
+      <c r="E29" s="68">
+        <v>85</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>30</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>43762</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>60</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9121,7 +9517,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9130,7 +9526,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9139,7 +9535,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9148,7 +9544,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9157,7 +9553,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9166,7 +9562,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9195,17 +9591,17 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -9218,10 +9614,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -9232,8 +9628,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -9256,7 +9652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -9279,7 +9675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
@@ -9302,7 +9698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
@@ -9325,7 +9721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -9348,7 +9744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -9371,7 +9767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
@@ -9394,7 +9790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
@@ -9417,7 +9813,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
@@ -9440,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
@@ -9463,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -9486,7 +9882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>82</v>
       </c>
@@ -9509,7 +9905,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9518,7 +9914,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9527,7 +9923,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9536,7 +9932,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9545,7 +9941,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9554,7 +9950,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9563,7 +9959,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9572,7 +9968,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9581,7 +9977,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9590,7 +9986,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9599,7 +9995,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9608,7 +10004,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9617,7 +10013,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9626,7 +10022,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9635,7 +10031,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9644,7 +10040,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9653,7 +10049,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9662,7 +10058,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9671,7 +10067,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9680,7 +10076,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9689,7 +10085,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9698,7 +10094,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9727,17 +10123,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -9750,10 +10146,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -9764,8 +10160,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -9788,7 +10184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -9797,7 +10193,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -9806,7 +10202,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -9815,7 +10211,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -9824,7 +10220,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -9833,7 +10229,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9842,7 +10238,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9851,7 +10247,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9860,7 +10256,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9869,7 +10265,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9878,7 +10274,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9887,7 +10283,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9896,7 +10292,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9905,7 +10301,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9914,7 +10310,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9923,7 +10319,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9932,7 +10328,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9941,7 +10337,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9950,7 +10346,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9959,7 +10355,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9968,7 +10364,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9977,7 +10373,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9986,7 +10382,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9995,7 +10391,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10004,7 +10400,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10013,7 +10409,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10022,7 +10418,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10031,7 +10427,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10040,7 +10436,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10049,7 +10445,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10058,7 +10454,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10067,7 +10463,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10076,7 +10472,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="12015" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
     <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -6001,6 +6001,404 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Requirement Spectification 1.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채워넣기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UC Diagram + UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -6008,7 +6406,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -6162,7 +6560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -6302,6 +6700,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -6618,21 +7017,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -6645,10 +7044,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -6659,8 +7058,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -6683,7 +7082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -6706,7 +7105,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
@@ -6729,7 +7128,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -6752,7 +7151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
@@ -6775,7 +7174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -6798,7 +7197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
@@ -6821,7 +7220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>55</v>
       </c>
@@ -6844,7 +7243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>42</v>
       </c>
@@ -6867,7 +7266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
@@ -6890,7 +7289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
@@ -6913,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
@@ -6936,7 +7335,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>45</v>
       </c>
@@ -6959,7 +7358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
@@ -6982,7 +7381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
@@ -7005,7 +7404,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>46</v>
       </c>
@@ -7028,7 +7427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>48</v>
       </c>
@@ -7051,7 +7450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>51</v>
       </c>
@@ -7074,7 +7473,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>84</v>
       </c>
@@ -7097,7 +7496,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>87</v>
       </c>
@@ -7120,7 +7519,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>90</v>
       </c>
@@ -7143,34 +7542,76 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>60</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>120</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D28" s="9">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17">
+        <v>60</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7179,7 +7620,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7188,7 +7629,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7197,7 +7638,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7206,7 +7647,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7215,7 +7656,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7224,7 +7665,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7233,7 +7674,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7242,7 +7683,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7251,7 +7692,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7263,11 +7704,11 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"돋움,Regular"&amp;8Adapted from &amp;"돋움,Italic"A Discipline for Software Engineering,&amp;"돋움,Regular"by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7280,17 +7721,17 @@
       <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -7303,10 +7744,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -7317,8 +7758,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -7341,7 +7782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -7364,7 +7805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
@@ -7387,7 +7828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
@@ -7410,7 +7851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -7433,7 +7874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -7456,7 +7897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
@@ -7479,7 +7920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>29</v>
       </c>
@@ -7503,7 +7944,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
@@ -7526,7 +7967,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
@@ -7549,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7558,7 +7999,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -7567,7 +8008,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -7576,7 +8017,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7585,7 +8026,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7594,7 +8035,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -7603,7 +8044,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7612,7 +8053,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -7621,7 +8062,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -7630,7 +8071,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7639,7 +8080,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7648,7 +8089,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7657,7 +8098,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7666,7 +8107,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7675,7 +8116,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -7684,7 +8125,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -7693,7 +8134,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -7702,7 +8143,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -7711,7 +8152,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -7720,7 +8161,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -7729,7 +8170,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -7738,7 +8179,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -7747,7 +8188,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -7756,7 +8197,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -7785,17 +8226,17 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -7808,10 +8249,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -7822,8 +8263,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -7846,7 +8287,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -7869,7 +8310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -7892,7 +8333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -7915,7 +8356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -7938,7 +8379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -7961,7 +8402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -7984,7 +8425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -8007,7 +8448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -8030,7 +8471,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>43739</v>
       </c>
@@ -8053,7 +8494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>43743</v>
       </c>
@@ -8076,7 +8517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>43744</v>
       </c>
@@ -8099,7 +8540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>43745</v>
       </c>
@@ -8122,7 +8563,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -8145,7 +8586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="59">
         <v>43750</v>
       </c>
@@ -8168,7 +8609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -8191,7 +8632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>43751</v>
       </c>
@@ -8214,7 +8655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
         <v>43753</v>
       </c>
@@ -8237,7 +8678,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8246,7 +8687,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8255,7 +8696,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8264,7 +8705,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8273,7 +8714,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8282,7 +8723,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8291,7 +8732,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8300,7 +8741,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8309,7 +8750,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8318,7 +8759,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8327,7 +8768,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8336,7 +8777,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8345,7 +8786,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8354,7 +8795,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8363,7 +8804,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8372,7 +8813,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8398,20 +8839,20 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -8424,10 +8865,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -8438,8 +8879,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -8462,7 +8903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
@@ -8485,7 +8926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -8508,7 +8949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
@@ -8531,7 +8972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -8554,7 +8995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -8577,7 +9018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8586,7 +9027,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -8595,7 +9036,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -8604,7 +9045,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8613,7 +9054,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8622,7 +9063,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8631,7 +9072,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8640,7 +9081,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8649,7 +9090,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8658,7 +9099,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8667,7 +9108,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8676,7 +9117,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8685,7 +9126,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8694,7 +9135,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8703,7 +9144,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8712,7 +9153,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8721,7 +9162,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8730,7 +9171,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8739,7 +9180,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8748,7 +9189,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8757,7 +9198,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8766,7 +9207,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8775,7 +9216,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8784,7 +9225,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8793,7 +9234,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8802,7 +9243,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8811,7 +9252,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8820,7 +9261,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8845,21 +9286,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -8872,10 +9313,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -8886,8 +9327,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -8910,7 +9351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -8933,7 +9374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -8956,7 +9397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -8979,7 +9420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -9002,7 +9443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -9025,7 +9466,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -9048,7 +9489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -9071,7 +9512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -9094,7 +9535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -9117,7 +9558,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -9140,7 +9581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -9163,7 +9604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -9186,7 +9627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -9209,7 +9650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>43751</v>
       </c>
@@ -9232,7 +9673,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -9255,7 +9696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>43752</v>
       </c>
@@ -9278,7 +9719,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
         <v>43752</v>
       </c>
@@ -9301,7 +9742,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
         <v>43753</v>
       </c>
@@ -9324,7 +9765,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>43753</v>
       </c>
@@ -9347,7 +9788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>43754</v>
       </c>
@@ -9370,7 +9811,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>43754</v>
       </c>
@@ -9393,7 +9834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>43755</v>
       </c>
@@ -9416,7 +9857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
         <v>43755</v>
       </c>
@@ -9439,7 +9880,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>43755</v>
       </c>
@@ -9462,7 +9903,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43760</v>
       </c>
@@ -9485,7 +9926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43762</v>
       </c>
@@ -9508,7 +9949,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9517,7 +9958,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9526,7 +9967,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9535,7 +9976,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9544,7 +9985,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9553,7 +9994,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9562,7 +10003,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9588,20 +10029,20 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -9614,10 +10055,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -9628,8 +10069,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -9652,7 +10093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +10116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>55</v>
       </c>
@@ -9698,7 +10139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
@@ -9721,7 +10162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -9744,7 +10185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -9767,7 +10208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
@@ -9790,7 +10231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>53</v>
       </c>
@@ -9813,7 +10254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
@@ -9836,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>33</v>
       </c>
@@ -9859,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -9882,7 +10323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>82</v>
       </c>
@@ -9905,7 +10346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9914,7 +10355,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9923,7 +10364,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9932,7 +10373,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9941,7 +10382,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9950,7 +10391,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9959,7 +10400,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9968,7 +10409,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9977,7 +10418,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9986,7 +10427,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9995,7 +10436,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10004,7 +10445,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10013,7 +10454,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10022,7 +10463,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10031,7 +10472,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10040,7 +10481,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10049,7 +10490,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10058,7 +10499,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10067,7 +10508,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10076,7 +10517,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10085,7 +10526,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10094,7 +10535,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -10123,17 +10564,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
@@ -10146,10 +10587,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>39</v>
       </c>
@@ -10160,8 +10601,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
@@ -10184,7 +10625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -10193,7 +10634,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -10202,7 +10643,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -10211,7 +10652,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -10220,7 +10661,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10229,7 +10670,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -10238,7 +10679,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -10247,7 +10688,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -10256,7 +10697,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -10265,7 +10706,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10274,7 +10715,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10283,7 +10724,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -10292,7 +10733,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10301,7 +10742,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10310,7 +10751,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10319,7 +10760,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10328,7 +10769,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10337,7 +10778,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -10346,7 +10787,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -10355,7 +10796,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -10364,7 +10805,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10373,7 +10814,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10382,7 +10823,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10391,7 +10832,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10400,7 +10841,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10409,7 +10850,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10418,7 +10859,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10427,7 +10868,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10436,7 +10877,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10445,7 +10886,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10454,7 +10895,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10463,7 +10904,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10472,7 +10913,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -6225,6 +6225,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6243,6 +6244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6337,6 +6339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6401,6 +6404,59 @@
       <t>수정</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Architecture Document 1.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7017,8 +7073,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7612,13 +7668,27 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29" s="9">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17">
+        <v>105</v>
+      </c>
+      <c r="F29" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="133">
   <si>
     <r>
       <rPr>
@@ -6456,6 +6456,92 @@
         <charset val="129"/>
       </rPr>
       <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도큐먼트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
     </r>
   </si>
 </sst>
@@ -7074,7 +7160,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7675,13 +7761,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C29" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="D29" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E29" s="17">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F29" s="64" t="s">
         <v>129</v>
@@ -7691,13 +7777,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="9">
+        <v>10</v>
+      </c>
+      <c r="E30" s="17">
+        <v>70</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -7784,13 +7784,13 @@
         <v>0.69444444444444453</v>
       </c>
       <c r="C30" s="3">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D30" s="9">
         <v>10</v>
       </c>
       <c r="E30" s="17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F30" s="64" t="s">
         <v>129</v>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1971B-4C2C-47D2-BC21-317691147052}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="12015" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,12 +208,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -389,12 +390,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -571,12 +572,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -753,12 +754,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -935,12 +936,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -954,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1117,12 +1118,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -7182,6 +7183,46 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Requirement Specification</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data Set 구성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위한 샘플 메뉴 수집</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Architecture Document</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SAD - Create 부분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7189,7 +7230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -7474,10 +7515,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7783,25 +7824,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -7814,10 +7855,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -7828,8 +7869,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -7852,7 +7893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>48</v>
       </c>
@@ -7875,7 +7916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
@@ -7898,7 +7939,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -7921,7 +7962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>71</v>
       </c>
@@ -7944,7 +7985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -7967,7 +8008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
@@ -7990,7 +8031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>72</v>
       </c>
@@ -8013,7 +8054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>51</v>
       </c>
@@ -8036,7 +8077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>51</v>
       </c>
@@ -8059,7 +8100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -8082,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>62</v>
       </c>
@@ -8105,7 +8146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>57</v>
       </c>
@@ -8128,7 +8169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>65</v>
       </c>
@@ -8151,7 +8192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>70</v>
       </c>
@@ -8174,7 +8215,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>49</v>
       </c>
@@ -8197,7 +8238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>53</v>
       </c>
@@ -8220,7 +8261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>66</v>
       </c>
@@ -8243,7 +8284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>77</v>
       </c>
@@ -8266,7 +8307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>78</v>
       </c>
@@ -8289,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>79</v>
       </c>
@@ -8312,7 +8353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="73" t="s">
         <v>110</v>
       </c>
@@ -8335,7 +8376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73" t="s">
         <v>112</v>
       </c>
@@ -8358,7 +8399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73" t="s">
         <v>114</v>
       </c>
@@ -8381,7 +8422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73" t="s">
         <v>115</v>
       </c>
@@ -8404,7 +8445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="73" t="s">
         <v>118</v>
       </c>
@@ -8427,7 +8468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
         <v>120</v>
       </c>
@@ -8450,7 +8491,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
         <v>121</v>
       </c>
@@ -8473,7 +8514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>124</v>
       </c>
@@ -8496,7 +8537,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8505,7 +8546,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8514,7 +8555,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8523,7 +8564,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8532,7 +8573,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8553,7 +8594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -8561,17 +8602,17 @@
       <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -8584,10 +8625,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -8598,8 +8639,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -8622,7 +8663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
@@ -8645,7 +8686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>72</v>
       </c>
@@ -8668,7 +8709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>72</v>
       </c>
@@ -8691,7 +8732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
@@ -8714,7 +8755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>62</v>
       </c>
@@ -8737,7 +8778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
@@ -8760,7 +8801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>59</v>
       </c>
@@ -8784,7 +8825,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>58</v>
       </c>
@@ -8807,7 +8848,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>50</v>
       </c>
@@ -8830,7 +8871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8839,7 +8880,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8848,7 +8889,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8857,7 +8898,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8866,7 +8907,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8875,7 +8916,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8884,7 +8925,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8893,7 +8934,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8902,7 +8943,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8911,7 +8952,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8920,7 +8961,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8929,7 +8970,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8938,7 +8979,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8947,7 +8988,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8956,7 +8997,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8965,7 +9006,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8974,7 +9015,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8983,7 +9024,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8992,7 +9033,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9001,7 +9042,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9010,7 +9051,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9019,7 +9060,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9028,7 +9069,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9037,7 +9078,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9058,25 +9099,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -9089,10 +9130,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -9103,8 +9144,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -9127,7 +9168,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -9150,7 +9191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -9173,7 +9214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -9196,7 +9237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -9219,7 +9260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43735</v>
       </c>
@@ -9242,7 +9283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>43736</v>
       </c>
@@ -9265,7 +9306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>43737</v>
       </c>
@@ -9288,7 +9329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>43739</v>
       </c>
@@ -9311,7 +9352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="59">
         <v>43739</v>
       </c>
@@ -9334,7 +9375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>43743</v>
       </c>
@@ -9357,7 +9398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="59">
         <v>43744</v>
       </c>
@@ -9380,7 +9421,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59">
         <v>43745</v>
       </c>
@@ -9403,7 +9444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -9426,7 +9467,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="59">
         <v>43750</v>
       </c>
@@ -9449,7 +9490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -9472,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>43751</v>
       </c>
@@ -9495,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
         <v>43753</v>
       </c>
@@ -9518,25 +9559,53 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>43760</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>60</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>43765</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D24" s="9">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17">
+        <v>150</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9545,7 +9614,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9554,7 +9623,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9563,7 +9632,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9572,7 +9641,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9581,7 +9650,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9590,7 +9659,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9599,7 +9668,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9608,7 +9677,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9617,7 +9686,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9626,7 +9695,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9635,7 +9704,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9644,7 +9713,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9653,7 +9722,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9674,7 +9743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -9682,17 +9751,17 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -9705,10 +9774,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -9719,8 +9788,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -9743,7 +9812,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>72</v>
       </c>
@@ -9766,7 +9835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
@@ -9789,7 +9858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
@@ -9812,7 +9881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
@@ -9835,7 +9904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
@@ -9858,7 +9927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9867,7 +9936,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9876,7 +9945,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9885,7 +9954,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9894,7 +9963,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9903,7 +9972,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9912,7 +9981,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9921,7 +9990,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9930,7 +9999,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9939,7 +10008,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9948,7 +10017,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9957,7 +10026,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9966,7 +10035,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9975,7 +10044,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9984,7 +10053,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9993,7 +10062,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -10002,7 +10071,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10011,7 +10080,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10020,7 +10089,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10029,7 +10098,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10038,7 +10107,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10047,7 +10116,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10056,7 +10125,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10065,7 +10134,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10074,7 +10143,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10083,7 +10152,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10092,7 +10161,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10101,7 +10170,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -10122,25 +10191,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -10153,10 +10222,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -10167,8 +10236,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -10191,7 +10260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -10214,7 +10283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -10237,7 +10306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -10260,7 +10329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -10283,7 +10352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="46">
         <v>43735</v>
       </c>
@@ -10306,7 +10375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="46">
         <v>43737</v>
       </c>
@@ -10329,7 +10398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="46">
         <v>43738</v>
       </c>
@@ -10352,7 +10421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="46">
         <v>43739</v>
       </c>
@@ -10375,7 +10444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>43739</v>
       </c>
@@ -10398,7 +10467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>43744</v>
       </c>
@@ -10421,7 +10490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>43744</v>
       </c>
@@ -10444,7 +10513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>43744</v>
       </c>
@@ -10467,7 +10536,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="59">
         <v>43749</v>
       </c>
@@ -10490,7 +10559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="59">
         <v>43751</v>
       </c>
@@ -10513,7 +10582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="59">
         <v>43751</v>
       </c>
@@ -10536,7 +10605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="59">
         <v>43752</v>
       </c>
@@ -10559,7 +10628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="59">
         <v>43752</v>
       </c>
@@ -10582,7 +10651,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="59">
         <v>43753</v>
       </c>
@@ -10605,7 +10674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="67">
         <v>43753</v>
       </c>
@@ -10628,7 +10697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
         <v>43754</v>
       </c>
@@ -10651,7 +10720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="67">
         <v>43754</v>
       </c>
@@ -10674,7 +10743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>43755</v>
       </c>
@@ -10697,7 +10766,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67">
         <v>43755</v>
       </c>
@@ -10720,7 +10789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="67">
         <v>43755</v>
       </c>
@@ -10743,7 +10812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43760</v>
       </c>
@@ -10766,7 +10835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>43762</v>
       </c>
@@ -10789,7 +10858,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>43765</v>
       </c>
@@ -10812,7 +10881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10821,7 +10890,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -10830,7 +10899,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10839,7 +10908,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -10848,7 +10917,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -10857,7 +10926,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -10878,7 +10947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -10886,17 +10955,17 @@
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -10909,10 +10978,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -10923,8 +10992,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -10947,7 +11016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>56</v>
       </c>
@@ -10970,7 +11039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>72</v>
       </c>
@@ -10993,7 +11062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>72</v>
       </c>
@@ -11016,7 +11085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
@@ -11039,7 +11108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>62</v>
       </c>
@@ -11062,7 +11131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
@@ -11085,7 +11154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>70</v>
       </c>
@@ -11108,7 +11177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
@@ -11131,7 +11200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
@@ -11154,7 +11223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>76</v>
       </c>
@@ -11177,7 +11246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>75</v>
       </c>
@@ -11200,7 +11269,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>108</v>
       </c>
@@ -11223,7 +11292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11232,7 +11301,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11241,7 +11310,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11250,7 +11319,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11259,7 +11328,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11268,7 +11337,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11277,7 +11346,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11286,7 +11355,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11295,7 +11364,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -11304,7 +11373,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11313,7 +11382,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11322,7 +11391,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -11331,7 +11400,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -11340,7 +11409,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -11349,7 +11418,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11358,7 +11427,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -11367,7 +11436,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -11376,7 +11445,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -11385,7 +11454,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -11394,7 +11463,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -11403,7 +11472,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -11424,7 +11493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -11432,17 +11501,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -11455,10 +11524,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
       </c>
@@ -11469,8 +11538,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
@@ -11493,7 +11562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -11502,7 +11571,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -11511,7 +11580,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -11520,7 +11589,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -11529,7 +11598,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -11538,7 +11607,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -11547,7 +11616,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -11556,7 +11625,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -11565,7 +11634,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -11574,7 +11643,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -11583,7 +11652,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -11592,7 +11661,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -11601,7 +11670,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -11610,7 +11679,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -11619,7 +11688,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -11628,7 +11697,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -11637,7 +11706,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -11646,7 +11715,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -11655,7 +11724,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -11664,7 +11733,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -11673,7 +11742,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -11682,7 +11751,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -11691,7 +11760,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -11700,7 +11769,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -11709,7 +11778,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -11718,7 +11787,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -11727,7 +11796,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -11736,7 +11805,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -11745,7 +11814,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -11754,7 +11823,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -11763,7 +11832,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -11772,7 +11841,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -11781,7 +11850,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1971B-4C2C-47D2-BC21-317691147052}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,12 +207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,12 +389,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -572,12 +571,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -754,12 +753,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -936,12 +935,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1118,12 +1117,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="139">
   <si>
     <r>
       <rPr>
@@ -7223,6 +7222,205 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UC Diagram + UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도식화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -7230,7 +7428,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -7362,7 +7560,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -7512,13 +7710,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7824,12 +8023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8522,13 +8721,13 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C33" s="3">
-        <v>0.84375</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="D33" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E33" s="17">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="F33" s="75" t="s">
         <v>116</v>
@@ -8538,13 +8737,27 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D34" s="9">
+        <v>20</v>
+      </c>
+      <c r="E34" s="17">
+        <v>140</v>
+      </c>
+      <c r="F34" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -8594,7 +8807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -9099,11 +9312,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -9743,7 +9956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -10191,7 +10404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -10947,7 +11160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -11493,7 +11706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이태수\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D034D96-8DA0-4F17-A357-2E9C7C72005C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D33B01-6A54-4D32-ADB3-D7DF875014DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7094,7 +7094,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Initial Data Set 작성(냉장고)</t>
+    <t>Initial Data Set 작성(냉장고dataset)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9661,7 +9661,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이태수\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D33B01-6A54-4D32-ADB3-D7DF875014DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -26,31 +25,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -70,6 +71,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -88,6 +90,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -106,6 +109,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -124,6 +128,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -142,6 +147,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -160,6 +166,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -178,6 +185,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -199,31 +207,33 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -243,6 +253,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -261,6 +272,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -279,6 +291,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -297,6 +310,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -315,6 +329,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -333,6 +348,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -351,6 +367,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -372,31 +389,33 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -416,6 +435,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -434,6 +454,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -452,6 +473,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -470,6 +492,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -488,6 +511,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -506,6 +530,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -524,6 +549,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -545,31 +571,33 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -589,6 +617,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -607,6 +636,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -625,6 +655,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -643,6 +674,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -661,6 +693,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -679,6 +712,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -697,6 +731,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -718,31 +753,33 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -762,6 +799,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -780,6 +818,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -798,6 +837,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -816,6 +856,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -834,6 +875,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -852,6 +894,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -870,6 +913,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -891,31 +935,33 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -935,6 +981,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -953,6 +1000,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -971,6 +1019,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -989,6 +1038,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1007,6 +1057,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1025,6 +1076,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1043,6 +1095,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1064,31 +1117,33 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -1108,6 +1163,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -1126,6 +1182,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1144,6 +1201,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1162,6 +1220,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1180,6 +1239,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1198,6 +1258,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1216,6 +1277,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1237,13 +1299,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="144">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="146">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Github </t>
     </r>
@@ -1262,6 +1325,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1280,6 +1344,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Android Studio </t>
     </r>
@@ -1298,6 +1363,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1318,6 +1384,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set 구성을</t>
     </r>
@@ -1338,6 +1405,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DB browser</t>
     </r>
@@ -1356,6 +1424,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1374,6 +1443,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -1392,6 +1462,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1410,6 +1481,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1428,6 +1500,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1446,6 +1519,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,6 +1540,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -1484,6 +1559,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1502,6 +1578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1520,6 +1597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -1538,6 +1616,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1548,6 +1627,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -1566,6 +1646,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -1584,6 +1665,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1602,6 +1684,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1620,6 +1703,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> invisible)</t>
     </r>
@@ -1630,6 +1714,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -1648,6 +1733,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1666,6 +1752,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1684,6 +1771,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -1704,6 +1792,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -1722,6 +1811,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1740,6 +1830,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1758,6 +1849,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1776,6 +1868,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1794,6 +1887,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1812,6 +1906,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1830,6 +1925,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1849,6 +1945,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -1867,6 +1964,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1885,6 +1983,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1903,6 +2002,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1929,6 +2029,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1947,6 +2048,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1965,6 +2067,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1983,6 +2086,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2001,6 +2105,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2019,6 +2124,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -2048,6 +2154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (3</t>
     </r>
@@ -2066,6 +2173,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2084,6 +2192,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2102,6 +2211,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2112,6 +2222,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (1</t>
     </r>
@@ -2130,6 +2241,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2148,6 +2260,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2166,6 +2279,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2176,6 +2290,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (2</t>
     </r>
@@ -2194,6 +2309,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2212,6 +2328,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2230,6 +2347,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2246,6 +2364,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sequence Diagram 구상</t>
     </r>
@@ -2266,6 +2385,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -2284,6 +2404,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2302,6 +2423,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2320,6 +2442,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2338,6 +2461,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2356,6 +2480,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2374,6 +2499,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2384,6 +2510,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -2402,6 +2529,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2420,6 +2548,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2438,6 +2567,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2448,6 +2578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ListView</t>
     </r>
@@ -2466,6 +2597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2484,6 +2616,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -2502,6 +2635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2520,6 +2654,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2538,6 +2673,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2558,6 +2694,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set(</t>
     </r>
@@ -2576,6 +2713,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2594,6 +2732,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2612,6 +2751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2630,6 +2770,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -2650,6 +2791,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -2668,6 +2810,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -2691,6 +2834,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create </t>
     </r>
@@ -2709,6 +2853,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Error </t>
     </r>
@@ -2727,6 +2872,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(table column </t>
     </r>
@@ -2745,6 +2891,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2764,6 +2911,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>UC Spec</t>
     </r>
@@ -2782,6 +2930,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -2800,6 +2949,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Prototyping</t>
     </r>
@@ -2820,6 +2970,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -2840,6 +2991,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -2876,6 +3028,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, PMP </t>
     </r>
@@ -2894,6 +3047,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2917,6 +3071,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Cae Outline </t>
     </r>
@@ -2937,6 +3092,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -2955,6 +3111,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> GUI </t>
     </r>
@@ -2975,6 +3132,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SQLite </t>
     </r>
@@ -2993,6 +3151,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -3013,6 +3172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping </t>
     </r>
@@ -3031,6 +3191,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3051,6 +3212,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Application </t>
     </r>
@@ -3069,6 +3231,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -3089,6 +3252,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SAD - Create 부분</t>
     </r>
@@ -3109,6 +3273,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Code Refactoring </t>
     </r>
@@ -3144,6 +3309,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -3162,6 +3328,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -3180,6 +3347,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3198,6 +3366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3216,6 +3385,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3226,6 +3396,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -3244,6 +3415,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3262,6 +3434,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3280,6 +3453,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3298,6 +3472,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3316,6 +3491,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -3334,6 +3510,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3344,6 +3521,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -3362,6 +3540,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3380,6 +3559,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3398,6 +3578,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3416,6 +3597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3434,6 +3616,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -3452,6 +3635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3462,6 +3646,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -3480,6 +3665,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3498,6 +3684,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3516,6 +3703,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3534,6 +3722,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3552,6 +3741,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -3570,6 +3760,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3580,6 +3771,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -3598,6 +3790,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3616,6 +3809,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3634,6 +3828,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3652,6 +3847,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -3670,6 +3866,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3680,6 +3877,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -3698,6 +3896,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3716,6 +3915,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3734,6 +3934,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3752,6 +3953,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3770,6 +3972,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, UC </t>
     </r>
@@ -3788,6 +3991,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3806,6 +4010,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3824,6 +4029,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3834,6 +4040,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -3852,6 +4059,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1</t>
     </r>
@@ -3870,6 +4078,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3888,6 +4097,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3906,6 +4116,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -3924,6 +4135,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3942,6 +4154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3952,6 +4165,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -3970,6 +4184,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3988,6 +4203,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4006,6 +4222,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4024,6 +4241,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4042,6 +4260,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, UC </t>
     </r>
@@ -4060,6 +4279,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), Entity Diagram </t>
     </r>
@@ -4092,6 +4312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4125,6 +4346,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4158,6 +4380,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4191,6 +4414,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4224,6 +4448,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4267,6 +4492,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4285,6 +4511,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4315,6 +4542,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4333,6 +4561,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4351,6 +4580,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4383,6 +4613,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -4417,6 +4648,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4435,6 +4667,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4453,6 +4686,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4471,6 +4705,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4491,6 +4726,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">API </t>
     </r>
@@ -4509,6 +4745,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4527,6 +4764,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4557,6 +4795,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping Sample </t>
     </r>
@@ -4575,6 +4814,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4605,6 +4845,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4623,6 +4864,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4641,6 +4883,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ui </t>
     </r>
@@ -4659,6 +4902,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4677,6 +4921,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4695,6 +4940,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4713,6 +4959,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4733,6 +4980,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -4751,6 +4999,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4769,6 +5018,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4787,6 +5037,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4805,6 +5056,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4823,6 +5075,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4841,6 +5094,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4859,6 +5113,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4869,6 +5124,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -4887,6 +5143,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4905,6 +5162,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4923,6 +5181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC Spec </t>
     </r>
@@ -4941,6 +5200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4951,6 +5211,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -4971,6 +5232,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -4989,6 +5251,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5007,6 +5270,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5025,6 +5289,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5084,6 +5349,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5104,6 +5370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5122,6 +5389,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 19</t>
     </r>
@@ -5142,6 +5410,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5160,6 +5429,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 28</t>
     </r>
@@ -5180,6 +5450,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5210,6 +5481,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5228,6 +5500,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
@@ -5248,6 +5521,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5266,6 +5540,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 7</t>
     </r>
@@ -5286,6 +5561,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5304,6 +5580,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
@@ -5324,6 +5601,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5342,6 +5620,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 21</t>
     </r>
@@ -5362,6 +5641,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5380,6 +5660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 8</t>
     </r>
@@ -5400,6 +5681,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5418,6 +5700,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -5438,6 +5721,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5456,6 +5740,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -5476,6 +5761,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5494,6 +5780,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 9</t>
     </r>
@@ -5514,6 +5801,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5532,6 +5820,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -5552,6 +5841,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5570,6 +5860,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 6</t>
     </r>
@@ -5590,6 +5881,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5608,6 +5900,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 29</t>
     </r>
@@ -5628,6 +5921,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5646,6 +5940,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -5666,6 +5961,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5684,6 +5980,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
@@ -5704,6 +6001,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5712,6 +6010,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -5730,6 +6029,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -5750,6 +6050,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5768,6 +6069,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 13</t>
     </r>
@@ -5788,6 +6090,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -5806,6 +6109,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 8</t>
     </r>
@@ -5826,6 +6130,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5844,6 +6149,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 4</t>
     </r>
@@ -5864,6 +6170,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5872,6 +6179,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -5890,6 +6198,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
@@ -5910,6 +6219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -5918,6 +6228,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -5936,6 +6247,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 26</t>
     </r>
@@ -5956,6 +6268,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5974,6 +6287,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 17</t>
     </r>
@@ -5994,6 +6308,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -6012,6 +6327,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 23</t>
     </r>
@@ -6035,6 +6351,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -6053,6 +6370,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -6085,6 +6403,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6105,6 +6424,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6123,6 +6443,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6141,6 +6462,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6159,6 +6481,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6177,6 +6500,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6195,6 +6519,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6213,6 +6538,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6231,6 +6557,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6249,6 +6576,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6259,6 +6587,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -6279,6 +6608,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView</t>
     </r>
@@ -6297,6 +6627,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6315,6 +6646,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -6351,6 +6683,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6369,6 +6702,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6387,6 +6721,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6405,6 +6740,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6423,6 +6759,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6441,6 +6778,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6461,6 +6799,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6479,6 +6818,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6497,6 +6837,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6515,6 +6856,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6533,6 +6875,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6551,6 +6894,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6569,6 +6913,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6604,6 +6949,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6622,6 +6968,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6640,6 +6987,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Creation </t>
     </r>
@@ -6658,6 +7006,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6676,6 +7025,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6694,6 +7044,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6712,6 +7063,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6732,6 +7084,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Android Studio </t>
     </r>
@@ -6750,6 +7103,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6768,6 +7122,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Setting, </t>
     </r>
@@ -6786,6 +7141,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6804,6 +7160,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6824,6 +7181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -6842,6 +7200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6860,6 +7219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -6878,6 +7238,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6896,6 +7257,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6914,6 +7276,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6932,6 +7295,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7095,13 +7459,76 @@
   </si>
   <si>
     <t>Initial Data Set 작성(냉장고dataset)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SAD 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RelativeLayout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -7116,18 +7543,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7155,6 +7585,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -7229,7 +7660,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -7384,13 +7815,14 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7696,7 +8128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -8480,7 +8912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -9013,7 +9445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -9657,11 +10089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -10175,12 +10607,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10866,22 +11298,50 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="14">
+        <v>43768</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>60</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="59">
+        <v>43768</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>40</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="84" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
@@ -10931,7 +11391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -11491,7 +11951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
   <si>
     <r>
       <rPr>
@@ -8454,6 +8454,256 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity Class Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Table Design (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초안</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -8462,8 +8712,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="h:mm;@"/>
-    <numFmt numFmtId="188" formatCode="[m]"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="179" formatCode="[m]"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -8581,7 +8831,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -8687,20 +8937,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8716,35 +8966,29 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8753,19 +8997,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -8793,9 +9036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8807,6 +9047,15 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9122,15 +9371,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="39" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="91" customWidth="1"/>
     <col min="2" max="2" width="8.77734375" style="55" customWidth="1"/>
     <col min="3" max="3" width="7" style="55" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="36" customWidth="1"/>
@@ -9140,35 +9389,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="A2" s="93"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="D3" s="83" t="s">
+      <c r="B3" s="79"/>
+      <c r="D3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="84"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="102" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -9191,7 +9440,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="91">
         <v>43714</v>
       </c>
       <c r="B6" s="55">
@@ -9215,7 +9464,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="99">
         <v>43714</v>
       </c>
       <c r="B7" s="55">
@@ -9228,7 +9477,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="62">
-        <f t="shared" ref="E7:E45" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E49" si="0">C7-B7-(D7/24/60)</f>
         <v>1.3888888888888926E-2</v>
       </c>
       <c r="F7" s="36" t="s">
@@ -9239,7 +9488,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="91">
         <v>43715</v>
       </c>
       <c r="B8" s="55">
@@ -9263,7 +9512,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="91">
         <v>43716</v>
       </c>
       <c r="B9" s="55">
@@ -9287,7 +9536,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="99">
         <v>43717</v>
       </c>
       <c r="B10" s="55">
@@ -9311,7 +9560,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="92">
         <v>43727</v>
       </c>
       <c r="B11" s="60">
@@ -9335,7 +9584,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="91">
         <v>43727</v>
       </c>
       <c r="B12" s="55">
@@ -9359,7 +9608,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="92">
         <v>43728</v>
       </c>
       <c r="B13" s="55">
@@ -9383,7 +9632,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="91">
         <v>43728</v>
       </c>
       <c r="B14" s="55">
@@ -9407,7 +9656,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="91">
         <v>43729</v>
       </c>
       <c r="B15" s="55">
@@ -9431,7 +9680,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="91">
         <v>43732</v>
       </c>
       <c r="B16" s="55">
@@ -9455,7 +9704,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="91">
         <v>43736</v>
       </c>
       <c r="B17" s="55">
@@ -9479,7 +9728,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="91">
         <v>43737</v>
       </c>
       <c r="B18" s="55">
@@ -9503,7 +9752,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="91">
         <v>43739</v>
       </c>
       <c r="B19" s="55">
@@ -9527,7 +9776,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51">
+      <c r="A20" s="93">
         <v>43742</v>
       </c>
       <c r="B20" s="55">
@@ -9551,7 +9800,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51">
+      <c r="A21" s="93">
         <v>43742</v>
       </c>
       <c r="B21" s="55">
@@ -9575,7 +9824,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51">
+      <c r="A22" s="93">
         <v>43746</v>
       </c>
       <c r="B22" s="55">
@@ -9599,7 +9848,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
+      <c r="A23" s="93">
         <v>43748</v>
       </c>
       <c r="B23" s="55">
@@ -9623,7 +9872,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="99">
         <v>43749</v>
       </c>
       <c r="B24" s="55">
@@ -9647,7 +9896,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51">
+      <c r="A25" s="93">
         <v>43751</v>
       </c>
       <c r="B25" s="55">
@@ -9671,7 +9920,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="51">
+      <c r="A26" s="93">
         <v>43755</v>
       </c>
       <c r="B26" s="55">
@@ -9695,7 +9944,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="51">
+      <c r="A27" s="93">
         <v>43755</v>
       </c>
       <c r="B27" s="55">
@@ -9719,7 +9968,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="51">
+      <c r="A28" s="93">
         <v>43755</v>
       </c>
       <c r="B28" s="55">
@@ -9743,7 +9992,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="51">
+      <c r="A29" s="93">
         <v>43761</v>
       </c>
       <c r="B29" s="55">
@@ -9767,7 +10016,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51">
+      <c r="A30" s="93">
         <v>43762</v>
       </c>
       <c r="B30" s="55">
@@ -9791,7 +10040,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51">
+      <c r="A31" s="93">
         <v>43762</v>
       </c>
       <c r="B31" s="55">
@@ -9815,7 +10064,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51">
+      <c r="A32" s="93">
         <v>43763</v>
       </c>
       <c r="B32" s="55">
@@ -9839,7 +10088,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
+      <c r="A33" s="93">
         <v>43763</v>
       </c>
       <c r="B33" s="55">
@@ -9863,7 +10112,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51">
+      <c r="A34" s="93">
         <v>43764</v>
       </c>
       <c r="B34" s="55">
@@ -9887,7 +10136,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="51">
+      <c r="A35" s="93">
         <v>43764</v>
       </c>
       <c r="B35" s="55">
@@ -9911,7 +10160,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51">
+      <c r="A36" s="93">
         <v>43764</v>
       </c>
       <c r="B36" s="55">
@@ -9935,7 +10184,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51">
+      <c r="A37" s="93">
         <v>43765</v>
       </c>
       <c r="B37" s="55">
@@ -9959,7 +10208,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="51">
+      <c r="A38" s="93">
         <v>43765</v>
       </c>
       <c r="B38" s="55">
@@ -9983,7 +10232,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54">
+      <c r="A39" s="99">
         <v>43766</v>
       </c>
       <c r="B39" s="61">
@@ -10007,7 +10256,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54">
+      <c r="A40" s="99">
         <v>43767</v>
       </c>
       <c r="B40" s="61">
@@ -10031,7 +10280,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54">
+      <c r="A41" s="99">
         <v>43769</v>
       </c>
       <c r="B41" s="61">
@@ -10055,7 +10304,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
+      <c r="A42" s="99">
         <v>43769</v>
       </c>
       <c r="B42" s="55">
@@ -10079,7 +10328,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54">
+      <c r="A43" s="99">
         <v>43769</v>
       </c>
       <c r="B43" s="55">
@@ -10103,7 +10352,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="91">
         <v>43770</v>
       </c>
       <c r="B44" s="55">
@@ -10127,7 +10376,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="A45" s="91">
         <v>43770</v>
       </c>
       <c r="B45" s="55">
@@ -10151,13 +10400,23 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+      <c r="A46" s="91">
         <v>43770</v>
       </c>
       <c r="B46" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F46" s="85" t="s">
+      <c r="C46" s="55">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D46" s="36">
+        <v>0</v>
+      </c>
+      <c r="E46" s="62">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888884</v>
+      </c>
+      <c r="F46" s="82" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="53" t="s">
@@ -10165,14 +10424,75 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
+      <c r="A47" s="91">
         <v>43770</v>
       </c>
       <c r="B47" s="55">
         <v>0.91666666666666663</v>
       </c>
+      <c r="C47" s="55">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D47" s="36">
+        <v>0</v>
+      </c>
+      <c r="E47" s="62">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="G47" s="53" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="C48" s="55">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D48" s="36">
+        <v>0</v>
+      </c>
+      <c r="E48" s="62">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="55">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C49" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="D49" s="36">
+        <v>10</v>
+      </c>
+      <c r="E49" s="62">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111133E-2</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -10191,13 +10511,13 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="92" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
@@ -10219,10 +10539,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
+      <c r="A2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="58"/>
@@ -10234,7 +10554,7 @@
     </row>
     <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -10257,7 +10577,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="91" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55">
@@ -10281,7 +10601,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="92" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="60">
@@ -10294,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E26" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E27" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -10305,7 +10625,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="55">
@@ -10329,7 +10649,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="91" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="55">
@@ -10353,7 +10673,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="55">
@@ -10377,7 +10697,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="55">
@@ -10401,7 +10721,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="93" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="55">
@@ -10426,7 +10746,7 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="93" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="55">
@@ -10450,7 +10770,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="93" t="s">
         <v>84</v>
       </c>
       <c r="B14" s="55">
@@ -10474,7 +10794,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="96">
+      <c r="A15" s="93">
         <v>43746</v>
       </c>
       <c r="B15" s="55">
@@ -10498,7 +10818,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="96">
+      <c r="A16" s="93">
         <v>43748</v>
       </c>
       <c r="B16" s="55">
@@ -10522,7 +10842,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="94">
+      <c r="A17" s="91">
         <v>43749</v>
       </c>
       <c r="B17" s="55">
@@ -10618,7 +10938,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="91" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="55">
@@ -10666,8 +10986,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
-        <v>87</v>
+      <c r="A23" s="51">
+        <v>43765</v>
       </c>
       <c r="B23" s="55">
         <v>0.625</v>
@@ -10761,17 +11081,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="55"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="55"/>
       <c r="D27" s="36"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="36"/>
@@ -10780,7 +11100,7 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="36"/>
@@ -10789,7 +11109,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="36"/>
@@ -10798,7 +11118,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="36"/>
@@ -10807,7 +11127,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="36"/>
@@ -10816,7 +11136,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="36"/>
@@ -10825,7 +11145,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="36"/>
@@ -10834,7 +11154,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="36"/>
@@ -10843,7 +11163,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="36"/>
@@ -10852,7 +11172,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
       <c r="D37" s="36"/>
@@ -10861,7 +11181,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
       <c r="D38" s="36"/>
@@ -10870,7 +11190,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="36"/>
@@ -10879,7 +11199,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
       <c r="D40" s="36"/>
@@ -10888,7 +11208,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
       <c r="D41" s="36"/>
@@ -10897,7 +11217,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
       <c r="D42" s="36"/>
@@ -10906,7 +11226,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
       <c r="D43" s="36"/>
@@ -10915,7 +11235,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="36"/>
@@ -10924,7 +11244,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="36"/>
@@ -10948,8 +11268,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11051,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E33" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E34" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -11137,10 +11457,10 @@
       <c r="A11" s="24">
         <v>43735</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="83">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="83">
         <v>0.89583333333333337</v>
       </c>
       <c r="D11" s="48">
@@ -11161,10 +11481,10 @@
       <c r="A12" s="25">
         <v>43736</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="84">
         <v>0.625</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="84">
         <v>0.79166666666666663</v>
       </c>
       <c r="D12" s="32">
@@ -11185,10 +11505,10 @@
       <c r="A13" s="24">
         <v>43737</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="83">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="83">
         <v>0.91666666666666663</v>
       </c>
       <c r="D13" s="48">
@@ -11326,7 +11646,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="96">
+      <c r="A19" s="93">
         <v>43746</v>
       </c>
       <c r="B19" s="55">
@@ -11350,7 +11670,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="96">
+      <c r="A20" s="93">
         <v>43748</v>
       </c>
       <c r="B20" s="55">
@@ -11374,7 +11694,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="94">
+      <c r="A21" s="91">
         <v>43749</v>
       </c>
       <c r="B21" s="55">
@@ -11685,14 +12005,29 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="4"/>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>43770</v>
+      </c>
+      <c r="B34" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C34" s="55">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="62">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -11810,12 +12145,12 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD25"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="92" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" style="69" customWidth="1"/>
@@ -11837,10 +12172,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
+      <c r="A2" s="96"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="58"/>
@@ -11852,7 +12187,7 @@
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -11875,7 +12210,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="92" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="60">
@@ -11899,7 +12234,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="91" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="55">
@@ -11912,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="73">
-        <f t="shared" ref="E7:E25" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E26" si="0">C7-B7-(D7/24/60)</f>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -11923,7 +12258,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="55">
@@ -11947,7 +12282,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="91" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="55">
@@ -11971,7 +12306,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="55">
@@ -11995,7 +12330,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="55">
@@ -12019,7 +12354,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="96">
+      <c r="A12" s="93">
         <v>43746</v>
       </c>
       <c r="B12" s="55">
@@ -12043,7 +12378,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="96">
+      <c r="A13" s="93">
         <v>43748</v>
       </c>
       <c r="B13" s="55">
@@ -12067,7 +12402,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="94">
+      <c r="A14" s="91">
         <v>43749</v>
       </c>
       <c r="B14" s="55">
@@ -12115,13 +12450,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="98" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="85">
         <v>0.98958333333333337</v>
       </c>
       <c r="D16" s="36">
@@ -12187,7 +12522,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="98" t="s">
         <v>113</v>
       </c>
       <c r="B19" s="55">
@@ -12211,7 +12546,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="98" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="55">
@@ -12259,7 +12594,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="91" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="55">
@@ -12354,17 +12689,32 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4"/>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>43770</v>
+      </c>
+      <c r="B26" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0</v>
+      </c>
+      <c r="E26" s="62">
+        <f t="shared" si="0"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
+      <c r="A27" s="91"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
       <c r="D27" s="36"/>
@@ -12373,7 +12723,7 @@
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
+      <c r="A28" s="91"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
       <c r="D28" s="36"/>
@@ -12382,7 +12732,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="91"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="36"/>
@@ -12391,7 +12741,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="36"/>
@@ -12400,7 +12750,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="36"/>
@@ -12409,7 +12759,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="36"/>
@@ -12418,7 +12768,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="36"/>
@@ -12427,7 +12777,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="36"/>
@@ -12436,7 +12786,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="36"/>
@@ -12445,7 +12795,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="36"/>
@@ -12454,7 +12804,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
       <c r="D37" s="36"/>
@@ -12463,7 +12813,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
       <c r="D38" s="36"/>
@@ -12472,7 +12822,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="36"/>
@@ -12481,7 +12831,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
       <c r="D40" s="36"/>
@@ -12490,7 +12840,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
       <c r="D41" s="36"/>
@@ -12499,7 +12849,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
       <c r="D42" s="36"/>
@@ -12508,7 +12858,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="98"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
       <c r="D43" s="36"/>
@@ -12517,7 +12867,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="36"/>
@@ -12542,12 +12892,12 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="92" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
@@ -12569,10 +12919,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
+      <c r="A2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="58"/>
@@ -12584,7 +12934,7 @@
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -12607,7 +12957,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="94">
+      <c r="A6" s="91">
         <v>43715</v>
       </c>
       <c r="B6" s="55">
@@ -12631,7 +12981,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="95">
+      <c r="A7" s="92">
         <v>43727</v>
       </c>
       <c r="B7" s="60">
@@ -12644,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E42" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E44" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -12655,7 +13005,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="94">
+      <c r="A8" s="91">
         <v>43727</v>
       </c>
       <c r="B8" s="55">
@@ -12679,7 +13029,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="91">
         <v>43728</v>
       </c>
       <c r="B9" s="55">
@@ -12703,7 +13053,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="55">
@@ -12727,7 +13077,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="94">
+      <c r="A11" s="91">
         <v>43735</v>
       </c>
       <c r="B11" s="55">
@@ -12751,7 +13101,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="94">
+      <c r="A12" s="91">
         <v>43737</v>
       </c>
       <c r="B12" s="55">
@@ -12775,7 +13125,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="94">
+      <c r="A13" s="91">
         <v>43738</v>
       </c>
       <c r="B13" s="55">
@@ -12799,7 +13149,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="94">
+      <c r="A14" s="91">
         <v>43739</v>
       </c>
       <c r="B14" s="55">
@@ -12823,7 +13173,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="96">
+      <c r="A15" s="93">
         <v>43739</v>
       </c>
       <c r="B15" s="55">
@@ -12847,7 +13197,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="94">
+      <c r="A16" s="91">
         <v>43744</v>
       </c>
       <c r="B16" s="55">
@@ -12871,7 +13221,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="94">
+      <c r="A17" s="91">
         <v>43744</v>
       </c>
       <c r="B17" s="55">
@@ -12895,7 +13245,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="94">
+      <c r="A18" s="91">
         <v>43744</v>
       </c>
       <c r="B18" s="55">
@@ -12919,7 +13269,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="96">
+      <c r="A19" s="93">
         <v>43746</v>
       </c>
       <c r="B19" s="55">
@@ -12943,7 +13293,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="96">
+      <c r="A20" s="93">
         <v>43748</v>
       </c>
       <c r="B20" s="55">
@@ -12967,7 +13317,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="94">
+      <c r="A21" s="91">
         <v>43749</v>
       </c>
       <c r="B21" s="55">
@@ -13015,7 +13365,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="94">
+      <c r="A23" s="91">
         <v>43751</v>
       </c>
       <c r="B23" s="55">
@@ -13039,7 +13389,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="94">
+      <c r="A24" s="91">
         <v>43751</v>
       </c>
       <c r="B24" s="55">
@@ -13063,7 +13413,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="94">
+      <c r="A25" s="91">
         <v>43752</v>
       </c>
       <c r="B25" s="55">
@@ -13087,7 +13437,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="94">
+      <c r="A26" s="91">
         <v>43752</v>
       </c>
       <c r="B26" s="55">
@@ -13111,7 +13461,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="94">
+      <c r="A27" s="91">
         <v>43753</v>
       </c>
       <c r="B27" s="55">
@@ -13135,13 +13485,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97">
+      <c r="A28" s="94">
         <v>43753</v>
       </c>
-      <c r="B28" s="89">
+      <c r="B28" s="86">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C28" s="89">
+      <c r="C28" s="86">
         <v>0.55208333333333337</v>
       </c>
       <c r="D28" s="45">
@@ -13159,13 +13509,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="97">
+      <c r="A29" s="94">
         <v>43754</v>
       </c>
-      <c r="B29" s="89">
+      <c r="B29" s="86">
         <v>0.875</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="86">
         <v>0.91666666666666663</v>
       </c>
       <c r="D29" s="45">
@@ -13183,13 +13533,13 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="97">
+      <c r="A30" s="94">
         <v>43754</v>
       </c>
-      <c r="B30" s="89">
+      <c r="B30" s="86">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C30" s="89">
+      <c r="C30" s="86">
         <v>1</v>
       </c>
       <c r="D30" s="45">
@@ -13207,13 +13557,13 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97">
+      <c r="A31" s="94">
         <v>43755</v>
       </c>
-      <c r="B31" s="89">
+      <c r="B31" s="86">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31" s="86">
         <v>0.41666666666666669</v>
       </c>
       <c r="D31" s="45">
@@ -13255,13 +13605,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="97">
+      <c r="A33" s="94">
         <v>43755</v>
       </c>
-      <c r="B33" s="89">
+      <c r="B33" s="86">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="86">
         <v>0.55208333333333337</v>
       </c>
       <c r="D33" s="45">
@@ -13303,7 +13653,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94">
+      <c r="A35" s="91">
         <v>43760</v>
       </c>
       <c r="B35" s="55">
@@ -13327,7 +13677,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94">
+      <c r="A36" s="91">
         <v>43762</v>
       </c>
       <c r="B36" s="55">
@@ -13375,7 +13725,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94">
+      <c r="A38" s="91">
         <v>43765</v>
       </c>
       <c r="B38" s="55">
@@ -13423,7 +13773,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94">
+      <c r="A40" s="91">
         <v>43768</v>
       </c>
       <c r="B40" s="55">
@@ -13447,7 +13797,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
+      <c r="A41" s="91">
         <v>43768</v>
       </c>
       <c r="B41" s="55">
@@ -13495,25 +13845,55 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="4"/>
+      <c r="A43" s="39">
+        <v>43770</v>
+      </c>
+      <c r="B43" s="55">
+        <v>0.6875</v>
+      </c>
+      <c r="C43" s="55">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0</v>
+      </c>
+      <c r="E43" s="62">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>43770</v>
+      </c>
+      <c r="B44" s="55">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="C44" s="55">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="D44" s="36">
+        <v>0</v>
+      </c>
+      <c r="E44" s="62">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="36"/>
@@ -13537,13 +13917,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="92" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
@@ -13565,10 +13945,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
+      <c r="A2" s="96"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="58"/>
@@ -13580,7 +13960,7 @@
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -13603,7 +13983,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="91" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="55">
@@ -13627,7 +14007,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="92" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="60">
@@ -13651,7 +14031,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="91" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="55">
@@ -13675,7 +14055,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="91" t="s">
         <v>94</v>
       </c>
       <c r="B9" s="55">
@@ -13699,7 +14079,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="55">
@@ -13723,7 +14103,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="92" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="60">
@@ -13747,7 +14127,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="91" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="55">
@@ -13771,7 +14151,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="91" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="55">
@@ -13795,7 +14175,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="91" t="s">
         <v>84</v>
       </c>
       <c r="B14" s="55">
@@ -13819,7 +14199,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="96">
+      <c r="A15" s="93">
         <v>43746</v>
       </c>
       <c r="B15" s="55">
@@ -13843,7 +14223,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="96">
+      <c r="A16" s="93">
         <v>43748</v>
       </c>
       <c r="B16" s="55">
@@ -13867,7 +14247,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="94">
+      <c r="A17" s="91">
         <v>43749</v>
       </c>
       <c r="B17" s="55">
@@ -13891,7 +14271,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="103">
+      <c r="A18" s="99">
         <v>43749</v>
       </c>
       <c r="B18" s="55">
@@ -13915,7 +14295,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="91" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="55">
@@ -13939,7 +14319,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="91" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="55">
@@ -14035,7 +14415,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B24" s="55">
@@ -14083,7 +14463,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="91" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="55">
@@ -14179,7 +14559,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
+      <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
       <c r="D30" s="36"/>
@@ -14188,7 +14568,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
       <c r="D31" s="36"/>
@@ -14197,7 +14577,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
       <c r="D32" s="36"/>
@@ -14206,7 +14586,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
       <c r="D33" s="36"/>
@@ -14215,7 +14595,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
       <c r="D34" s="36"/>
@@ -14224,7 +14604,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
       <c r="D35" s="36"/>
@@ -14233,7 +14613,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
       <c r="D36" s="36"/>
@@ -14242,7 +14622,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
       <c r="D37" s="36"/>
@@ -14251,7 +14631,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
       <c r="D38" s="36"/>
@@ -14260,7 +14640,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
       <c r="D39" s="36"/>
@@ -14269,7 +14649,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
       <c r="D40" s="36"/>
@@ -14278,7 +14658,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
       <c r="D41" s="36"/>
@@ -14287,7 +14667,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
       <c r="D42" s="36"/>
@@ -14296,7 +14676,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
       <c r="D43" s="36"/>
@@ -14305,7 +14685,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
       <c r="D44" s="36"/>
@@ -14314,7 +14694,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
+      <c r="A45" s="95"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
       <c r="D45" s="36"/>
@@ -14323,7 +14703,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="98"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
       <c r="D46" s="36"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08418D-EDAC-47FF-B547-DAA08696E87D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,25 @@
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
     <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -207,12 +216,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -389,12 +398,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -571,12 +580,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -753,12 +762,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -935,12 +944,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -954,7 +963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1117,12 +1126,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="153">
   <si>
     <r>
       <rPr>
@@ -6925,6 +6934,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6943,6 +6953,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6970,6 +6981,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -6988,6 +7000,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7022,6 +7035,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7040,6 +7054,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7067,6 +7082,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -7085,6 +7101,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7119,6 +7136,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7137,6 +7155,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7164,6 +7183,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -7182,6 +7202,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7424,6 +7445,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -7442,6 +7464,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7967,6 +7990,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7985,6 +8009,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8003,6 +8028,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8021,6 +8047,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8039,6 +8066,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8681,6 +8709,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8699,8 +8728,45 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GridView, ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 XML 디자인 &amp; 데이터베이스 연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GridView 세부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 디자인 구현</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8708,7 +8774,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -9060,10 +9126,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9369,11 +9435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="C31" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
@@ -10507,7 +10573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -10614,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E27" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E26" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -11264,12 +11330,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11371,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E34" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E36" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -12030,22 +12096,52 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="14">
+        <v>43771</v>
+      </c>
+      <c r="B35" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C35" s="55">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36">
+        <v>240</v>
+      </c>
+      <c r="E35" s="62">
+        <f t="shared" si="0"/>
+        <v>0.37500000000000011</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="14">
+        <v>43772</v>
+      </c>
+      <c r="B36" s="55">
+        <v>0</v>
+      </c>
+      <c r="C36" s="55">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D36" s="36">
+        <v>60</v>
+      </c>
+      <c r="E36" s="62">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
@@ -12140,7 +12236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -12887,7 +12983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -13913,7 +14009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -14723,7 +14819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A08418D-EDAC-47FF-B547-DAA08696E87D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
     <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -762,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -944,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1126,12 +1125,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1308,7 +1307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -8770,11 +8769,182 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rototyping</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rototyping </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Coding Guideline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Code Refactoring(Databases Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, DatabaseController </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">생성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DB Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Coding Guideline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -8863,7 +9033,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -8886,6 +9056,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8897,7 +9093,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -9123,13 +9319,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9435,7 +9637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -9443,18 +9645,18 @@
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="91" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="55" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="55" customWidth="1"/>
     <col min="3" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="43" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
         <v>20</v>
       </c>
@@ -9467,10 +9669,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>86</v>
       </c>
@@ -9481,8 +9683,8 @@
       <c r="E3" s="81"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="102" t="s">
         <v>81</v>
       </c>
@@ -9505,7 +9707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
         <v>43714</v>
       </c>
@@ -9529,7 +9731,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="99">
         <v>43714</v>
       </c>
@@ -9553,7 +9755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="91">
         <v>43715</v>
       </c>
@@ -9577,7 +9779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91">
         <v>43716</v>
       </c>
@@ -9601,7 +9803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="99">
         <v>43717</v>
       </c>
@@ -9625,7 +9827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92">
         <v>43727</v>
       </c>
@@ -9649,7 +9851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="91">
         <v>43727</v>
       </c>
@@ -9673,7 +9875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="92">
         <v>43728</v>
       </c>
@@ -9697,7 +9899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="91">
         <v>43728</v>
       </c>
@@ -9721,7 +9923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="91">
         <v>43729</v>
       </c>
@@ -9745,7 +9947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
         <v>43732</v>
       </c>
@@ -9769,7 +9971,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
         <v>43736</v>
       </c>
@@ -9793,7 +9995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91">
         <v>43737</v>
       </c>
@@ -9817,7 +10019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="91">
         <v>43739</v>
       </c>
@@ -9841,7 +10043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="93">
         <v>43742</v>
       </c>
@@ -9865,7 +10067,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="93">
         <v>43742</v>
       </c>
@@ -9889,7 +10091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93">
         <v>43746</v>
       </c>
@@ -9913,7 +10115,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="93">
         <v>43748</v>
       </c>
@@ -9937,7 +10139,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="99">
         <v>43749</v>
       </c>
@@ -9961,7 +10163,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="93">
         <v>43751</v>
       </c>
@@ -9985,7 +10187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="93">
         <v>43755</v>
       </c>
@@ -10009,7 +10211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="93">
         <v>43755</v>
       </c>
@@ -10033,7 +10235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="93">
         <v>43755</v>
       </c>
@@ -10057,7 +10259,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
         <v>43761</v>
       </c>
@@ -10081,7 +10283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="93">
         <v>43762</v>
       </c>
@@ -10105,7 +10307,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="93">
         <v>43762</v>
       </c>
@@ -10129,7 +10331,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="93">
         <v>43763</v>
       </c>
@@ -10153,7 +10355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="93">
         <v>43763</v>
       </c>
@@ -10177,7 +10379,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93">
         <v>43764</v>
       </c>
@@ -10201,7 +10403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="93">
         <v>43764</v>
       </c>
@@ -10225,7 +10427,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="93">
         <v>43764</v>
       </c>
@@ -10249,7 +10451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="93">
         <v>43765</v>
       </c>
@@ -10273,7 +10475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93">
         <v>43765</v>
       </c>
@@ -10297,7 +10499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="99">
         <v>43766</v>
       </c>
@@ -10321,7 +10523,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="99">
         <v>43767</v>
       </c>
@@ -10345,7 +10547,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="99">
         <v>43769</v>
       </c>
@@ -10369,7 +10571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="99">
         <v>43769</v>
       </c>
@@ -10393,7 +10595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="99">
         <v>43769</v>
       </c>
@@ -10417,7 +10619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="91">
         <v>43770</v>
       </c>
@@ -10441,7 +10643,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="91">
         <v>43770</v>
       </c>
@@ -10465,7 +10667,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="91">
         <v>43770</v>
       </c>
@@ -10489,7 +10691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="91">
         <v>43770</v>
       </c>
@@ -10513,7 +10715,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="99" t="s">
         <v>147</v>
       </c>
@@ -10537,7 +10739,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="99" t="s">
         <v>147</v>
       </c>
@@ -10573,7 +10775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -10581,17 +10783,17 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -10604,10 +10806,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="96"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
@@ -10618,8 +10820,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
@@ -10642,7 +10844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
         <v>93</v>
       </c>
@@ -10666,7 +10868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92" t="s">
         <v>89</v>
       </c>
@@ -10690,7 +10892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
         <v>89</v>
       </c>
@@ -10714,7 +10916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
         <v>94</v>
       </c>
@@ -10738,7 +10940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
@@ -10762,7 +10964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
         <v>90</v>
       </c>
@@ -10786,7 +10988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93" t="s">
         <v>91</v>
       </c>
@@ -10811,7 +11013,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="93" t="s">
         <v>79</v>
       </c>
@@ -10835,7 +11037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="93" t="s">
         <v>84</v>
       </c>
@@ -10859,7 +11061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
         <v>43746</v>
       </c>
@@ -10883,7 +11085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
         <v>43748</v>
       </c>
@@ -10907,7 +11109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>43749</v>
       </c>
@@ -10931,7 +11133,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <v>43749</v>
       </c>
@@ -10955,7 +11157,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="51">
         <v>43755</v>
       </c>
@@ -10979,7 +11181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="51">
         <v>43755</v>
       </c>
@@ -11003,7 +11205,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="91" t="s">
         <v>77</v>
       </c>
@@ -11027,7 +11229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51">
         <v>43764</v>
       </c>
@@ -11051,7 +11253,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51">
         <v>43765</v>
       </c>
@@ -11075,7 +11277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <v>43767</v>
       </c>
@@ -11099,7 +11301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>43769</v>
       </c>
@@ -11123,7 +11325,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <v>43769</v>
       </c>
@@ -11147,7 +11349,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="61"/>
       <c r="C27" s="55"/>
@@ -11156,7 +11358,7 @@
       <c r="F27" s="48"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="91"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -11165,7 +11367,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="91"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -11174,7 +11376,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -11183,7 +11385,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -11192,7 +11394,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -11201,7 +11403,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -11210,7 +11412,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -11219,7 +11421,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -11228,7 +11430,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -11237,7 +11439,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -11246,7 +11448,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -11255,7 +11457,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -11264,7 +11466,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -11273,7 +11475,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -11282,7 +11484,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -11291,7 +11493,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="91"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -11300,7 +11502,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="95"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -11309,7 +11511,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="95"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -11330,25 +11532,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -11361,10 +11563,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>86</v>
       </c>
@@ -11375,8 +11577,8 @@
       <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -11399,7 +11601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>43715</v>
       </c>
@@ -11423,7 +11625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43727</v>
       </c>
@@ -11447,7 +11649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>43727</v>
       </c>
@@ -11471,7 +11673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>43728</v>
       </c>
@@ -11495,7 +11697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39">
         <v>43732</v>
       </c>
@@ -11519,7 +11721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>43735</v>
       </c>
@@ -11543,7 +11745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>43736</v>
       </c>
@@ -11567,7 +11769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>43737</v>
       </c>
@@ -11591,7 +11793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>43739</v>
       </c>
@@ -11615,7 +11817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="39">
         <v>43739</v>
       </c>
@@ -11639,7 +11841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39">
         <v>43743</v>
       </c>
@@ -11663,7 +11865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="39">
         <v>43744</v>
       </c>
@@ -11687,7 +11889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39">
         <v>43745</v>
       </c>
@@ -11711,7 +11913,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="93">
         <v>43746</v>
       </c>
@@ -11735,7 +11937,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>43748</v>
       </c>
@@ -11759,7 +11961,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>43749</v>
       </c>
@@ -11783,7 +11985,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <v>43749</v>
       </c>
@@ -11807,7 +12009,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>43750</v>
       </c>
@@ -11831,7 +12033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="39">
         <v>43751</v>
       </c>
@@ -11855,7 +12057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="39">
         <v>43751</v>
       </c>
@@ -11879,7 +12081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>43753</v>
       </c>
@@ -11903,7 +12105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="51">
         <v>43755</v>
       </c>
@@ -11927,7 +12129,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="51">
         <v>43755</v>
       </c>
@@ -11951,7 +12153,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>43760</v>
       </c>
@@ -11975,7 +12177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51">
         <v>43764</v>
       </c>
@@ -11999,7 +12201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>43765</v>
       </c>
@@ -12023,7 +12225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54">
         <v>43767</v>
       </c>
@@ -12047,7 +12249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54">
         <v>43769</v>
       </c>
@@ -12071,7 +12273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="39">
         <v>43770</v>
       </c>
@@ -12095,7 +12297,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>43771</v>
       </c>
@@ -12119,7 +12321,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>43772</v>
       </c>
@@ -12143,7 +12345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -12152,7 +12354,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -12161,7 +12363,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -12170,7 +12372,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -12179,7 +12381,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -12188,7 +12390,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -12197,7 +12399,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -12206,7 +12408,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -12215,7 +12417,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -12236,7 +12438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -12244,17 +12446,17 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -12267,10 +12469,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="96"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
@@ -12281,8 +12483,8 @@
       <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
@@ -12305,7 +12507,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
         <v>89</v>
       </c>
@@ -12329,7 +12531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
         <v>89</v>
       </c>
@@ -12353,7 +12555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
         <v>94</v>
       </c>
@@ -12377,7 +12579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
         <v>92</v>
       </c>
@@ -12401,7 +12603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>90</v>
       </c>
@@ -12425,7 +12627,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
         <v>95</v>
       </c>
@@ -12449,7 +12651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="93">
         <v>43746</v>
       </c>
@@ -12473,7 +12675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="93">
         <v>43748</v>
       </c>
@@ -12497,7 +12699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>43749</v>
       </c>
@@ -12521,7 +12723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <v>43749</v>
       </c>
@@ -12545,7 +12747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
         <v>111</v>
       </c>
@@ -12569,7 +12771,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="51">
         <v>43755</v>
       </c>
@@ -12593,7 +12795,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51">
         <v>43762</v>
       </c>
@@ -12617,7 +12819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="98" t="s">
         <v>113</v>
       </c>
@@ -12641,7 +12843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="98" t="s">
         <v>115</v>
       </c>
@@ -12665,7 +12867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51">
         <v>43764</v>
       </c>
@@ -12689,7 +12891,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="91" t="s">
         <v>87</v>
       </c>
@@ -12713,7 +12915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <v>43767</v>
       </c>
@@ -12737,7 +12939,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <v>43769</v>
       </c>
@@ -12761,7 +12963,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <v>43769</v>
       </c>
@@ -12785,7 +12987,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="39">
         <v>43770</v>
       </c>
@@ -12809,7 +13011,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91"/>
       <c r="B27" s="55"/>
       <c r="C27" s="55"/>
@@ -12818,7 +13020,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="91"/>
       <c r="B28" s="55"/>
       <c r="C28" s="55"/>
@@ -12827,7 +13029,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="91"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
@@ -12836,7 +13038,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -12845,7 +13047,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -12854,7 +13056,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -12863,7 +13065,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -12872,7 +13074,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -12881,7 +13083,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -12890,7 +13092,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -12899,7 +13101,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -12908,7 +13110,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -12917,7 +13119,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -12926,7 +13128,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -12935,7 +13137,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -12944,7 +13146,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -12953,7 +13155,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -12962,7 +13164,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="95"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -12983,25 +13185,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="89" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -13014,10 +13216,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="87"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
         <v>86</v>
       </c>
@@ -13028,8 +13230,8 @@
       <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
@@ -13052,7 +13254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="91">
         <v>43715</v>
       </c>
@@ -13076,7 +13278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="92">
         <v>43727</v>
       </c>
@@ -13090,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="72">
-        <f t="shared" ref="E7:E44" si="0">C7-B7-(D7/24/60)</f>
+        <f t="shared" ref="E7:E46" si="0">C7-B7-(D7/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -13100,7 +13302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="91">
         <v>43727</v>
       </c>
@@ -13124,7 +13326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="91">
         <v>43728</v>
       </c>
@@ -13148,7 +13350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
@@ -13172,7 +13374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="91">
         <v>43735</v>
       </c>
@@ -13196,7 +13398,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="91">
         <v>43737</v>
       </c>
@@ -13220,7 +13422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="91">
         <v>43738</v>
       </c>
@@ -13244,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="91">
         <v>43739</v>
       </c>
@@ -13268,7 +13470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="93">
         <v>43739</v>
       </c>
@@ -13292,7 +13494,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="91">
         <v>43744</v>
       </c>
@@ -13316,7 +13518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
         <v>43744</v>
       </c>
@@ -13340,7 +13542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="91">
         <v>43744</v>
       </c>
@@ -13364,7 +13566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="93">
         <v>43746</v>
       </c>
@@ -13388,7 +13590,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="93">
         <v>43748</v>
       </c>
@@ -13412,7 +13614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>43749</v>
       </c>
@@ -13436,7 +13638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <v>43749</v>
       </c>
@@ -13460,7 +13662,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="91">
         <v>43751</v>
       </c>
@@ -13484,7 +13686,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>43751</v>
       </c>
@@ -13508,7 +13710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="91">
         <v>43752</v>
       </c>
@@ -13532,7 +13734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="91">
         <v>43752</v>
       </c>
@@ -13556,7 +13758,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
         <v>43753</v>
       </c>
@@ -13580,7 +13782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94">
         <v>43753</v>
       </c>
@@ -13604,7 +13806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="94">
         <v>43754</v>
       </c>
@@ -13628,7 +13830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
         <v>43754</v>
       </c>
@@ -13652,7 +13854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="94">
         <v>43755</v>
       </c>
@@ -13676,7 +13878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="51">
         <v>43755</v>
       </c>
@@ -13700,7 +13902,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="94">
         <v>43755</v>
       </c>
@@ -13724,7 +13926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="51">
         <v>43755</v>
       </c>
@@ -13748,7 +13950,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="91">
         <v>43760</v>
       </c>
@@ -13772,7 +13974,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91">
         <v>43762</v>
       </c>
@@ -13796,7 +13998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51">
         <v>43764</v>
       </c>
@@ -13820,7 +14022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="91">
         <v>43765</v>
       </c>
@@ -13844,7 +14046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="54">
         <v>43767</v>
       </c>
@@ -13868,7 +14070,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="91">
         <v>43768</v>
       </c>
@@ -13892,7 +14094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="91">
         <v>43768</v>
       </c>
@@ -13916,7 +14118,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="54">
         <v>43769</v>
       </c>
@@ -13940,7 +14142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39">
         <v>43770</v>
       </c>
@@ -13964,7 +14166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="39">
         <v>43770</v>
       </c>
@@ -13988,16 +14190,542 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="4"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <v>43772</v>
+      </c>
+      <c r="B45" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="C45" s="55">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D45" s="36">
+        <v>30</v>
+      </c>
+      <c r="E45" s="62">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <v>43772</v>
+      </c>
+      <c r="B46" s="55">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C46" s="55">
+        <v>1</v>
+      </c>
+      <c r="D46" s="36">
+        <v>30</v>
+      </c>
+      <c r="E46" s="62">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333329</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="G46" s="103"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="53"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="39"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="39"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="39"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="53"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="39"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="53"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="39"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="39"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="39"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="39"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="39"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="39"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="39"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="39"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="39"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="39"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="39"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="39"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="39"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="39"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="39"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="39"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="53"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="39"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="39"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="53"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="39"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="39"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="53"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="39"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="53"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="39"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="53"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="39"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="53"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="39"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="53"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="39"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="53"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="39"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="53"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="39"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="53"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="39"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="53"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="39"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="53"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="39"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="39"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="53"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="39"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="39"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G45:G46"/>
+  </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14009,7 +14737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -14017,17 +14745,17 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="89" customWidth="1"/>
     <col min="2" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="69" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -14040,10 +14768,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="96"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97" t="s">
         <v>86</v>
       </c>
@@ -14054,8 +14782,8 @@
       <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
         <v>81</v>
       </c>
@@ -14078,7 +14806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
         <v>93</v>
       </c>
@@ -14102,7 +14830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92" t="s">
         <v>89</v>
       </c>
@@ -14126,7 +14854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
         <v>89</v>
       </c>
@@ -14150,7 +14878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
         <v>94</v>
       </c>
@@ -14174,7 +14902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
         <v>92</v>
       </c>
@@ -14198,7 +14926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="92" t="s">
         <v>97</v>
       </c>
@@ -14222,7 +14950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="s">
         <v>95</v>
       </c>
@@ -14246,7 +14974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="s">
         <v>82</v>
       </c>
@@ -14270,7 +14998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="s">
         <v>84</v>
       </c>
@@ -14294,7 +15022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="93">
         <v>43746</v>
       </c>
@@ -14318,7 +15046,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="93">
         <v>43748</v>
       </c>
@@ -14342,7 +15070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>43749</v>
       </c>
@@ -14366,7 +15094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="99">
         <v>43749</v>
       </c>
@@ -14390,7 +15118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="91" t="s">
         <v>85</v>
       </c>
@@ -14414,7 +15142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="91" t="s">
         <v>78</v>
       </c>
@@ -14438,7 +15166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="51">
         <v>43755</v>
       </c>
@@ -14462,7 +15190,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="51">
         <v>43755</v>
       </c>
@@ -14486,7 +15214,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51">
         <v>43762</v>
       </c>
@@ -14510,7 +15238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="99" t="s">
         <v>133</v>
       </c>
@@ -14534,7 +15262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51">
         <v>43764</v>
       </c>
@@ -14558,7 +15286,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>96</v>
       </c>
@@ -14582,7 +15310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54">
         <v>43767</v>
       </c>
@@ -14606,7 +15334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54">
         <v>43769</v>
       </c>
@@ -14630,7 +15358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54">
         <v>43769</v>
       </c>
@@ -14654,7 +15382,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="91"/>
       <c r="B30" s="55"/>
       <c r="C30" s="55"/>
@@ -14663,7 +15391,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="91"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
@@ -14672,7 +15400,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="91"/>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
@@ -14681,7 +15409,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="91"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
@@ -14690,7 +15418,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="91"/>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
@@ -14699,7 +15427,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="91"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
@@ -14708,7 +15436,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="91"/>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
@@ -14717,7 +15445,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
@@ -14726,7 +15454,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="91"/>
       <c r="B38" s="55"/>
       <c r="C38" s="55"/>
@@ -14735,7 +15463,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="91"/>
       <c r="B39" s="55"/>
       <c r="C39" s="55"/>
@@ -14744,7 +15472,7 @@
       <c r="F39" s="17"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="91"/>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -14753,7 +15481,7 @@
       <c r="F40" s="17"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="91"/>
       <c r="B41" s="55"/>
       <c r="C41" s="55"/>
@@ -14762,7 +15490,7 @@
       <c r="F41" s="17"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="91"/>
       <c r="B42" s="55"/>
       <c r="C42" s="55"/>
@@ -14771,7 +15499,7 @@
       <c r="F42" s="17"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="91"/>
       <c r="B43" s="55"/>
       <c r="C43" s="55"/>
@@ -14780,7 +15508,7 @@
       <c r="F43" s="17"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="91"/>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -14789,7 +15517,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="95"/>
       <c r="B45" s="55"/>
       <c r="C45" s="55"/>
@@ -14798,7 +15526,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="95"/>
       <c r="B46" s="55"/>
       <c r="C46" s="55"/>
@@ -14819,7 +15547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -14827,17 +15555,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -14850,10 +15578,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>86</v>
       </c>
@@ -14864,8 +15592,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>81</v>
       </c>
@@ -14888,7 +15616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14897,7 +15625,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -14906,7 +15634,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -14915,7 +15643,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -14924,7 +15652,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -14933,7 +15661,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -14942,7 +15670,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -14951,7 +15679,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -14960,7 +15688,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -14969,7 +15697,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14978,7 +15706,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -14987,7 +15715,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -14996,7 +15724,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -15005,7 +15733,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -15014,7 +15742,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -15023,7 +15751,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -15032,7 +15760,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -15041,7 +15769,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -15050,7 +15778,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -15059,7 +15787,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -15068,7 +15796,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -15077,7 +15805,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -15086,7 +15814,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -15095,7 +15823,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -15104,7 +15832,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -15113,7 +15841,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -15122,7 +15850,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -15131,7 +15859,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -15140,7 +15868,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -15149,7 +15877,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -15158,7 +15886,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -15167,7 +15895,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -15176,7 +15904,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>

--- a/Project Planning/1_3_PSP_Sheet.xlsx
+++ b/Project Planning/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8C9783-D15E-463B-892A-CCBA8F812AEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1176" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
     <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,12 +206,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,12 +379,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,12 +552,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -571,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -726,12 +725,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -899,12 +898,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -917,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1072,12 +1071,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -8316,6 +8315,94 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 메커니즘 조사</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ntity Class Diagram, Table Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entity Class Diagram, Table Design </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -8323,7 +8410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -8477,12 +8564,6 @@
   </cellStyleXfs>
   <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -8714,13 +8795,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9026,1903 +9113,1951 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="93" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="7" style="57" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="91" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="7" style="55" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="103" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="D3" s="82" t="s">
+      <c r="B3" s="79"/>
+      <c r="D3" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91">
         <v>43714</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.625</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>0.75</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>20</v>
       </c>
-      <c r="E6" s="64">
-        <f t="shared" ref="E6:E49" si="0">C6-B6-(D6/24/60)</f>
+      <c r="E6" s="62">
+        <f t="shared" ref="E6:E51" si="0">C6-B6-(D6/24/60)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
         <v>43714</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="55">
         <v>0.75</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>10</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="62">
         <f t="shared" si="0"/>
         <v>1.3888888888888926E-2</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91">
         <v>43715</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.5</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="62">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
         <v>43716</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.97430555555555554</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.99861111111111101</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="62">
         <f t="shared" si="0"/>
         <v>2.4305555555555469E-2</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="101">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
         <v>43717</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.52777777777777779</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>95</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="62">
         <f t="shared" si="0"/>
         <v>7.9861111111111147E-2</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92">
         <v>43727</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="62">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="93">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91">
         <v>43727</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="62">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92">
         <v>43728</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>0.40625</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>10</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="62">
         <f t="shared" si="0"/>
         <v>4.5138888888888867E-2</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="93">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
         <v>43728</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.73611111111111116</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="62">
         <f t="shared" si="0"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91">
         <v>43729</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>30</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="62">
         <f t="shared" si="0"/>
         <v>4.8611111111111202E-2</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="93">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
         <v>43732</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
         <v>43736</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.75</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>15</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666706E-2</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
         <v>43737</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>30</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <f t="shared" si="0"/>
         <v>9.722222222222214E-2</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="93">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
         <v>43739</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93">
         <v>43742</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.84027777777777779</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>10</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
         <f t="shared" si="0"/>
         <v>0.14583333333333334</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="50" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93">
         <v>43742</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>20</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="62">
         <f t="shared" si="0"/>
         <v>6.9444444444444364E-2</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="93">
         <v>43746</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>20</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <f t="shared" si="0"/>
         <v>0.14583333333333334</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="95">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="93">
         <v>43748</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>0.13194444444444445</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>0.1875</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>10</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="62">
         <f t="shared" si="0"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="101">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="99">
         <v>43749</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="95">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="93">
         <v>43751</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>20</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222217E-2</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="95">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="93">
         <v>43755</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.375</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="62">
         <f t="shared" si="0"/>
         <v>5.9027777777777735E-2</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="95">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="93">
         <v>43755</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="95">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="93">
         <v>43755</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="95">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="93">
         <v>43761</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="55">
         <v>0</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="93">
         <v>43762</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="62">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="95">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="93">
         <v>43762</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="55">
         <v>0.67361111111111116</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="55">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>10</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666602E-2</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="93">
         <v>43763</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="55">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>20</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="62">
         <f t="shared" si="0"/>
         <v>9.7222222222222265E-2</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="93">
         <v>43763</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="55">
         <v>0.69444444444444453</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="55">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="36">
         <v>10</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="62">
         <f t="shared" si="0"/>
         <v>6.9444444444444392E-2</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="93">
         <v>43764</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="62">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="93">
         <v>43764</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="55">
         <v>0.6875</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="95">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="93">
         <v>43764</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="55">
         <v>0.875</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="55">
         <v>1.1145833333333333</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>90</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="62">
         <f t="shared" si="0"/>
         <v>0.17708333333333326</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="95">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="93">
         <v>43765</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="55">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="55">
         <v>0.81944444444444453</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>20</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="62">
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="95">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="93">
         <v>43765</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="55">
         <v>43765.881944444445</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="55">
         <v>43765.993055555555</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="67">
         <v>20</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="62">
         <f t="shared" si="0"/>
         <v>9.7222222220605337E-2</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="43" t="s">
+      <c r="G38" s="41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="101">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="99">
         <v>43766</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="61">
         <v>43766.972222222219</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="55">
         <v>43767.076388888891</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="36">
         <v>0</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666667151731</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="101">
+    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="99">
         <v>43767</v>
       </c>
-      <c r="B40" s="63">
+      <c r="B40" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="36">
         <v>0</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="101">
+    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="99">
         <v>43769</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="61">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="36">
         <v>0</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="62">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="101">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="99">
         <v>43769</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="36">
         <v>0</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="62">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="101">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="99">
         <v>43769</v>
       </c>
-      <c r="B43" s="57">
+      <c r="B43" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="36">
         <v>0</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="93">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91">
         <v>43770</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="55">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="55">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="36">
         <v>0</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="62">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="93">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="91">
         <v>43770</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="55">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="36">
         <v>0</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="62">
         <f t="shared" si="0"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="93">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="91">
         <v>43770</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="55">
         <v>0.86805555555555547</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="36">
         <v>0</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="62">
         <f t="shared" si="0"/>
         <v>0.13888888888888884</v>
       </c>
-      <c r="F46" s="84" t="s">
+      <c r="F46" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="53" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="93">
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="91">
         <v>43770</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="55">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="36">
         <v>0</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="62">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="55" t="s">
+      <c r="G47" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="101" t="s">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="55">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="36">
         <v>0</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="105" t="s">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="57">
+      <c r="B49" s="55">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="55">
         <v>0.625</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="36">
         <v>10</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="62">
         <f t="shared" si="0"/>
         <v>4.8611111111111133E-2</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="55" t="s">
+      <c r="G49" s="53" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="91">
+        <v>43774</v>
+      </c>
+      <c r="B50" s="55">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C50" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="36">
+        <v>20</v>
+      </c>
+      <c r="E50" s="62">
+        <f t="shared" si="0"/>
+        <v>9.0277777777777735E-2</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="91">
+        <v>43774</v>
+      </c>
+      <c r="B51" s="55">
+        <v>0.4375</v>
+      </c>
+      <c r="C51" s="55">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+      <c r="E51" s="62">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="105" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"돋움,Regular"&amp;8Adapted from &amp;"돋움,Italic"A Discipline for Software Engineering,&amp;"돋움,Regular"by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="91" customWidth="1"/>
-    <col min="2" max="3" width="7" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
+    <col min="2" max="3" width="7" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-    </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+    </row>
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="58"/>
+      <c r="D3" s="65" t="s">
         <v>94</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
-      <c r="E6" s="74">
-        <f t="shared" ref="E6:E27" si="0">C6-B6-(D6/24/60)</f>
+      <c r="E6" s="72">
+        <f t="shared" ref="E6:E26" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="55">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>20</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444475E-2</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>20</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444364E-2</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>30</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <f t="shared" si="0"/>
         <v>0.14583333333333329</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="95">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="93">
         <v>43746</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="95">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="93">
         <v>43748</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="91">
         <v>43749</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>5</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="56">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
         <v>43749</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="53">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
         <v>43755</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="53">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="51">
         <v>43755</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.69444444444444442</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>10</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666602E-2</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
         <v>43764</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
         <v>43765</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>0.625</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <v>43767</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
         <v>43769</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="61">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="62">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54">
         <v>43769</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="105" t="s">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="61">
         <v>0.5</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <f>C27-B27-(D27/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F27" s="106" t="s">
+      <c r="F27" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="107" t="s">
+      <c r="G27" s="105" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="97"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="97"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="91"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -10936,7 +11071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G45"/>
   <sheetViews>
@@ -10944,891 +11079,891 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="2" max="3" width="7" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="58"/>
+      <c r="D3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>43715</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <f t="shared" ref="E6:E36" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>43727</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>43727</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>43728</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>43732</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="62">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>43735</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="83">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="83">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="48">
         <v>60</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>43736</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="84">
         <v>0.625</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="84">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>60</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <f t="shared" si="0"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
         <v>43737</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="83">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="83">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="48">
         <v>20</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <f t="shared" si="0"/>
         <v>0.13194444444444436</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>43739</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="41">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>43739</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="41">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>43743</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.75</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="72">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="41">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>43744</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="40" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>43745</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="72">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="93">
         <v>43746</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="93">
         <v>43748</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="91">
         <v>43749</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>5</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
         <v>43749</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="39">
         <v>43750</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>0.9375</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>1</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>30</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666671E-2</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="41">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <v>43751</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.125</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>30</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <f t="shared" si="0"/>
         <v>6.2500000000000014E-2</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="41">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <v>43751</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.625</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>43753</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="72">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="42" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="53">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="51">
         <v>43755</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="53">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="51">
         <v>43755</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>43760</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="55">
         <v>0.5</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="50" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="51">
         <v>43764</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="55">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>43765</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>30</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="72">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="50" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54">
         <v>43767</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="54">
         <v>43769</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="41">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
         <v>43770</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="55">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="62">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>43771</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="55">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="55">
         <v>1</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <v>240</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="62">
         <f t="shared" si="0"/>
         <v>0.37500000000000011</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>43772</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="55">
         <v>0</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="55">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>60</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="62">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -11842,7 +11977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -11850,732 +11985,732 @@
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="91" customWidth="1"/>
-    <col min="2" max="3" width="7" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="71" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
+    <col min="2" max="3" width="7" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="58"/>
+      <c r="D3" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="73">
         <f t="shared" ref="E6:E26" si="0">C6-B6-(D6/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="73">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="73">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="73">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="73">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="73">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="95">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="93">
         <v>43746</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="95">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="93">
         <v>43748</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F13" s="50" t="s">
+      <c r="F13" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="93">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="91">
         <v>43749</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>5</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
         <v>43749</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="85">
         <v>0.98958333333333337</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="73">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="53">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="51">
         <v>43755</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
         <v>43762</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.75</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="73">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="s">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="73">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
         <v>43764</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.6875</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>0.75</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="73">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="54">
         <v>43767</v>
       </c>
-      <c r="B23" s="63">
+      <c r="B23" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
         <v>43769</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="61">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="62">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
         <v>43769</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="41">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>43770</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="62">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="97"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="97"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="91"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="91"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="95"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12589,7 +12724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -12597,1534 +12732,1534 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="91" customWidth="1"/>
-    <col min="2" max="3" width="7" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="89" customWidth="1"/>
+    <col min="2" max="3" width="7" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="90" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="58"/>
+      <c r="D3" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="93">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="91">
         <v>43715</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <f t="shared" ref="E6:E46" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="94">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
         <v>43727</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="93">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="91">
         <v>43727</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="91">
         <v>43728</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="73">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="93">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="91">
         <v>43735</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>120</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="93">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="91">
         <v>43737</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>30</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="93">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="91">
         <v>43738</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="93">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
         <v>43739</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.46875</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="95">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="93">
         <v>43739</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="93">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
         <v>43744</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.375</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="72">
         <f t="shared" si="0"/>
         <v>2.7777777777777735E-2</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="93">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
         <v>43744</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="93">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
         <v>43744</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="72">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="95">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="93">
         <v>43746</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="95">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="93">
         <v>43748</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="91">
         <v>43749</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>5</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
         <v>43749</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="93">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="91">
         <v>43751</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="72">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="91">
         <v>43751</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.90277777777777779</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="93">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="91">
         <v>43752</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>0.75</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.80902777777777779</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>10</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333343E-2</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="93">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="91">
         <v>43752</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.90625</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.93402777777777779</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="72">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="93">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="91">
         <v>43753</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>20</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="72">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="96">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="94">
         <v>43753</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="86">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="86">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="45">
         <v>20</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="72">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="96">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="94">
         <v>43754</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="86">
         <v>0.875</v>
       </c>
-      <c r="C29" s="88">
+      <c r="C29" s="86">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="45">
         <v>0</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="96">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="94">
         <v>43754</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="86">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="86">
         <v>1</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="45">
         <v>0</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="96">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="94">
         <v>43755</v>
       </c>
-      <c r="B31" s="88">
+      <c r="B31" s="86">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C31" s="88">
+      <c r="C31" s="86">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="45">
         <v>0</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="72">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="53">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="51">
         <v>43755</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="55">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96">
+    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="94">
         <v>43755</v>
       </c>
-      <c r="B33" s="88">
+      <c r="B33" s="86">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="86">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="45">
         <v>0</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="72">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="53">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="51">
         <v>43755</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91">
         <v>43760</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="36">
         <v>0</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="72">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="53" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="91">
         <v>43762</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="55">
         <v>0.51388888888888895</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>0</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51">
         <v>43764</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="55">
         <v>0.6875</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>0</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="62">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91">
         <v>43765</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="55">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="36">
         <v>0</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="72">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="49" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54">
         <v>43767</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="36">
         <v>0</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91">
         <v>43768</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="55">
         <v>0.375</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="36">
         <v>0</v>
       </c>
-      <c r="E40" s="74">
+      <c r="E40" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="53" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91">
         <v>43768</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="55">
         <v>0.94444444444444453</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="55">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="36">
         <v>0</v>
       </c>
-      <c r="E41" s="74">
+      <c r="E41" s="72">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
         <v>43769</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="36">
         <v>0</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="41">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
         <v>43770</v>
       </c>
-      <c r="B43" s="57">
+      <c r="B43" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="55">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="36">
         <v>0</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="62">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="41">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
         <v>43770</v>
       </c>
-      <c r="B44" s="57">
+      <c r="B44" s="55">
         <v>0.94097222222222221</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="55">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="36">
         <v>0</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="62">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="41">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
         <v>43772</v>
       </c>
-      <c r="B45" s="57">
+      <c r="B45" s="55">
         <v>0.625</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="36">
         <v>30</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="62">
         <f t="shared" si="0"/>
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="106" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="41">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
         <v>43772</v>
       </c>
-      <c r="B46" s="57">
+      <c r="B46" s="55">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="55">
         <v>1</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="36">
         <v>30</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="62">
         <f t="shared" si="0"/>
         <v>0.20833333333333329</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="41"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="55"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="41"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="55"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="41"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="41"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="41"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="41"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="55"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="55"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="41"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="55"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="41"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="55"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="41"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="41"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="41"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="55"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="41"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="55"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="41"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="55"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="41"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="55"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="41"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="55"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="55"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="55"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="55"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="41"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="55"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="41"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="55"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="41"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="55"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="41"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="55"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="41"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="55"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="41"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="55"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="41"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="55"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="41"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="55"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="41"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="55"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="41"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="55"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="41"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="55"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="41"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="55"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="41"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="55"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="41"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="55"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="41"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="55"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="41"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="55"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="41"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="55"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="41"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="55"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="41"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="55"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="41"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="55"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="41"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="55"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="41"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="55"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="41"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="55"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="41"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="55"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="41"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="55"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="41"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="55"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="41"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="55"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="41"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="55"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="41"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="55"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="41"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="55"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="41"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="55"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="41"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="55"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="41"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="55"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="41"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="55"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="41"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="55"/>
+      <c r="G46" s="107"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="53"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="53"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="53"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="53"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="53"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="53"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="53"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="53"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="53"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="53"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="53"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="53"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="53"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="53"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="53"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="53"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="53"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="53"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="53"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="53"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="53"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="53"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="53"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="53"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14141,7 +14276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -14149,810 +14284,810 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="91" customWidth="1"/>
-    <col min="2" max="3" width="7" style="59" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="71" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="89" customWidth="1"/>
+    <col min="2" max="3" width="7" style="57" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="64" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="58"/>
+      <c r="D3" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="70"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="55">
         <v>0.5</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="36">
         <v>0</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="72">
         <f t="shared" ref="E6:E30" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="60">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="55">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="72">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="55">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="72">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="60">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="60">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="74">
+      <c r="E11" s="72">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="55">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="72">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="55">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="55">
         <v>0.75</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>180</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="72">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="93" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="55">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>60</v>
       </c>
-      <c r="E14" s="74">
+      <c r="E14" s="72">
         <f t="shared" si="0"/>
         <v>4.166666666666665E-2</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="95">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="93">
         <v>43746</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="95">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="93">
         <v>43748</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="72">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="93">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="91">
         <v>43749</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="55">
         <v>0.6875</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="55">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>5</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="72">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="101">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="99">
         <v>43749</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="55">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="62">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="55">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>60</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <f t="shared" si="0"/>
         <v>0.12500000000000008</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="55">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>60</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="72">
         <f t="shared" si="0"/>
         <v>0.12500000000000008</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="53">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="51">
         <v>43755</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.4375</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="62">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="53" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="53">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="51">
         <v>43755</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="55">
         <v>0.5625</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51">
         <v>43762</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="62">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101" t="s">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>0.75</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>30</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <f t="shared" si="0"/>
         <v>6.2500000000000042E-2</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51">
         <v>43764</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="62">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>20</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="72">
         <f t="shared" si="0"/>
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="19" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
         <v>43767</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="61">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="55">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="62">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56">
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54">
         <v>43769</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="61">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="55">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="62">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
         <v>43769</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="55">
         <v>0.96875</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="62">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="53" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="55">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>20</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="62">
         <f t="shared" si="0"/>
         <v>2.7777777777777853E-2</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="93"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="93"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="93"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="93"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="93"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="93"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="97"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="97"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="91"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="91"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -14966,7 +15101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -14974,363 +15109,363 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="22" t="s">
+      <c r="B3" s="2"/>
+      <c r="D3" s="20" t="s">
         <v>107</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="6"/>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
